--- a/data/city-util/raw/City.xlsx
+++ b/data/city-util/raw/City.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="City"/>
   </sheets>
   <definedNames>
-    <definedName name="City">'City'!$A$1:$AB$275</definedName>
+    <definedName name="City">'City'!$A$1:$AC$275</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB275"/>
+  <dimension ref="A1:AC275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -464,30 +464,35 @@
       </c>
       <c r="W1" s="0" t="inlineStr">
         <is>
+          <t>WoodPelletsPrice</t>
+        </is>
+      </c>
+      <c r="X1" s="0" t="inlineStr">
+        <is>
           <t>CoalPrice</t>
         </is>
       </c>
-      <c r="X1" s="0" t="inlineStr">
+      <c r="Y1" s="0" t="inlineStr">
         <is>
           <t>SteamPrice</t>
         </is>
       </c>
-      <c r="Y1" s="0" t="inlineStr">
+      <c r="Z1" s="0" t="inlineStr">
         <is>
           <t>HotWaterPrice</t>
         </is>
       </c>
-      <c r="Z1" s="0" t="inlineStr">
+      <c r="AA1" s="0" t="inlineStr">
         <is>
           <t>MunicipalSalesTax</t>
         </is>
       </c>
-      <c r="AA1" s="0" t="inlineStr">
+      <c r="AB1" s="0" t="inlineStr">
         <is>
           <t>BoroughSalesTax</t>
         </is>
       </c>
-      <c r="AB1" s="0" t="inlineStr">
+      <c r="AC1" s="0" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
@@ -545,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="R2" s="0">
-        <v>3.0699999332428</v>
+        <v>3.07999992370605</v>
       </c>
       <c r="T2" s="0">
         <v>4.5</v>
@@ -556,12 +561,14 @@
       <c r="V2" s="0">
         <v>345</v>
       </c>
-      <c r="W2" s="0">
+      <c r="W2" s="0"/>
+      <c r="X2" s="0">
         <v>175</v>
       </c>
-      <c r="AB2" s="0" t="inlineStr">
-        <is>
-          <t>Weather and Location Data. fuel costs from 1/2018 ; Weather info in Weather database - DO NOT ENTER HERE, Oil prices from Petrolane and Denali Fuel for 300 gallons delivered ; Propane is average of costs for those who own tank and those who rent</t>
+      <c r="AB2" s="0" t="inlineStr"/>
+      <c r="AC2" s="0" t="inlineStr">
+        <is>
+          <t>Weather and Location Data. fuel costs from 7/2018 ; Weather info in Weather database - DO NOT ENTER HERE, Oil prices from Petrolane and Denali Fuel for 300 gallons delivered ; Propane is average of costs for those who own tank and those who rent</t>
         </is>
       </c>
     </row>
@@ -622,10 +629,12 @@
       <c r="S3" s="0">
         <v>4.69000005722046</v>
       </c>
-      <c r="Z3" s="0">
+      <c r="Z3" s="0"/>
+      <c r="AA3" s="0">
         <v>3.99999991059303E-02</v>
       </c>
-      <c r="AB3" s="0" t="inlineStr">
+      <c r="AB3" s="0" t="inlineStr"/>
+      <c r="AC3" s="0" t="inlineStr">
         <is>
           <t>Weather and Location Data. Weather info in Weather database - DO NOT ENTER HERE; oil prices from 1/2018 -</t>
         </is>
@@ -683,14 +692,15 @@
         <v>0</v>
       </c>
       <c r="R4" s="0">
-        <v>2.45000004768372</v>
+        <v>2.91000008583069</v>
       </c>
       <c r="S4" s="0">
-        <v>2.45000004768372</v>
-      </c>
-      <c r="AB4" s="0" t="inlineStr">
-        <is>
-          <t>Weather and Location Data. fuel costs from 1/2018   HDD, Temp, Elev from AEIDCClimatological Summary, 1986-87, dT and wind from nearest: Cold Bay;</t>
+        <v>2.91000008583069</v>
+      </c>
+      <c r="AB4" s="0" t="inlineStr"/>
+      <c r="AC4" s="0" t="inlineStr">
+        <is>
+          <t>Weather and Location Data. fuel costs from 7/2018   HDD, Temp, Elev from AEIDCClimatological Summary, 1986-87, dT and wind from nearest: Cold Bay;</t>
         </is>
       </c>
     </row>
@@ -746,14 +756,15 @@
         <v>0</v>
       </c>
       <c r="R5" s="0">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="T5" s="0">
         <v>11.4399995803833</v>
       </c>
-      <c r="AB5" s="0" t="inlineStr">
-        <is>
-          <t>Weather and Location Data. fuel costs from 1/2018; HDD, Temp, Elev from AEIDCClimatological Summary, 1922-82; wind and dT from nearest :Bettles,</t>
+      <c r="AB5" s="0" t="inlineStr"/>
+      <c r="AC5" s="0" t="inlineStr">
+        <is>
+          <t>Weather and Location Data. fuel costs from 7/2018; HDD, Temp, Elev from AEIDCClimatological Summary, 1922-82; wind and dT from nearest :Bettles,</t>
         </is>
       </c>
     </row>
@@ -809,15 +820,17 @@
         <v>0</v>
       </c>
       <c r="R6" s="0">
-        <v>3.82999992370605</v>
+        <v>4.09999990463257</v>
       </c>
       <c r="S6" s="0">
-        <v>3.82999992370605</v>
-      </c>
-      <c r="Z6" s="0">
+        <v>4.07999992370605</v>
+      </c>
+      <c r="Z6" s="0"/>
+      <c r="AA6" s="0">
         <v>2.99999993294477E-02</v>
       </c>
-      <c r="AB6" s="0" t="inlineStr">
+      <c r="AB6" s="0" t="inlineStr"/>
+      <c r="AC6" s="0" t="inlineStr">
         <is>
           <t>Weather and Location Data. fuel costs from 1/2018 ; wind from WERA map class, weather from AEIDC summary 1941-87, dT from nearest Juneau;</t>
         </is>
@@ -875,14 +888,16 @@
         <v>0</v>
       </c>
       <c r="R7" s="0">
-        <v>5.94999980926514</v>
-      </c>
-      <c r="Z7" s="0">
+        <v>5.69000005722046</v>
+      </c>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0">
         <v>1.99999995529652E-02</v>
       </c>
-      <c r="AB7" s="0" t="inlineStr">
-        <is>
-          <t>Fuel costs from 1/2018; m/s from WERA, weather from AEIDC summary 1922-76,85-87;</t>
+      <c r="AB7" s="0" t="inlineStr"/>
+      <c r="AC7" s="0" t="inlineStr">
+        <is>
+          <t>Fuel costs from 7/2018; m/s from WERA, weather from AEIDC summary 1922-76,85-87;</t>
         </is>
       </c>
     </row>
@@ -938,14 +953,15 @@
         <v>0</v>
       </c>
       <c r="R8" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T8" s="0">
-        <v>15.25</v>
-      </c>
-      <c r="AB8" s="0" t="inlineStr">
-        <is>
-          <t>Fuel price from 1/2018; HDD, Temp, Elev from AEIDCClimatological Summary, 1962-72;87, wind from WERA map class,dT from nearest: Bettles;</t>
+        <v>14.8299999237061</v>
+      </c>
+      <c r="AB8" s="0" t="inlineStr"/>
+      <c r="AC8" s="0" t="inlineStr">
+        <is>
+          <t>Fuel price from 7/2018; HDD, Temp, Elev from AEIDCClimatological Summary, 1962-72;87, wind from WERA map class,dT from nearest: Bettles;</t>
         </is>
       </c>
     </row>
@@ -1003,9 +1019,10 @@
       <c r="R9" s="0">
         <v>6.84999990463257</v>
       </c>
-      <c r="AB9" s="0" t="inlineStr">
-        <is>
-          <t>Fuel costs from 1/2018; dbTemp, Elev from AEIDCClimatological Summary, 1923-28;36-49; wind from nearest - Adak; oil from 6/08 survey Atka Native Store</t>
+      <c r="AB9" s="0" t="inlineStr"/>
+      <c r="AC9" s="0" t="inlineStr">
+        <is>
+          <t>Fuel costs from 7/2018; dbTemp, Elev from AEIDCClimatological Summary, 1923-28;36-49; wind from nearest - Adak; oil from 6/08 survey Atka Native Store</t>
         </is>
       </c>
     </row>
@@ -1064,20 +1081,23 @@
         <v>292</v>
       </c>
       <c r="R10" s="0">
-        <v>2.96000003814697</v>
+        <v>3.1800000667572</v>
       </c>
       <c r="S10" s="0">
-        <v>2.91000008583069</v>
+        <v>3.15000009536743</v>
       </c>
       <c r="T10" s="0">
-        <v>3.15000009536743</v>
-      </c>
-      <c r="AA10" s="0">
-        <v>5.00000007450581E-02</v>
-      </c>
+        <v>3.95000004768372</v>
+      </c>
+      <c r="AA10" s="0"/>
       <c r="AB10" s="0" t="inlineStr">
         <is>
-          <t>Fuel costs from  1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1963-87dT and wind from Juneau</t>
+          <t>5.00000007450581E-02</t>
+        </is>
+      </c>
+      <c r="AC10" s="0" t="inlineStr">
+        <is>
+          <t>Fuel costs from  7/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1963-87dT and wind from Juneau</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1155,8 @@
       <c r="T11" s="0">
         <v>12.710000038147</v>
       </c>
-      <c r="AB11" s="0" t="inlineStr">
+      <c r="AB11" s="0" t="inlineStr"/>
+      <c r="AC11" s="0" t="inlineStr">
         <is>
           <t>Natural gas for heat; Weather info in Weather database - DO NOT ENTER HERE;</t>
         </is>
@@ -1193,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="R12" s="0">
-        <v>3.9300000667572</v>
+        <v>4.32999992370605</v>
       </c>
       <c r="T12" s="0">
-        <v>9.47999954223633</v>
+        <v>9.65999984741211</v>
       </c>
       <c r="U12" s="0">
         <v>300</v>
@@ -1204,12 +1225,14 @@
       <c r="V12" s="0">
         <v>350</v>
       </c>
-      <c r="Z12" s="0">
+      <c r="Z12" s="0"/>
+      <c r="AA12" s="0">
         <v>5.99999986588955E-02</v>
       </c>
-      <c r="AB12" s="0" t="inlineStr">
-        <is>
-          <t> Fuel costs from  1/2018; Weather info in Weather database - DO NOT ENTER HERE;</t>
+      <c r="AB12" s="0" t="inlineStr"/>
+      <c r="AC12" s="0" t="inlineStr">
+        <is>
+          <t> Fuel costs from  1/2018, except fire wood; Weather info in Weather database - DO NOT ENTER HERE;</t>
         </is>
       </c>
     </row>
@@ -1270,7 +1293,8 @@
       <c r="T13" s="0">
         <v>8.47000026702881</v>
       </c>
-      <c r="AB13" s="0" t="inlineStr">
+      <c r="AB13" s="0" t="inlineStr"/>
+      <c r="AC13" s="0" t="inlineStr">
         <is>
           <t>Oct 2016 Weather and Location Data. fuel costs from 7/2017 flown in by Everts in Fairbanks;  Weather info in Weather database - DO NOT ENTER HERE</t>
         </is>
@@ -1328,14 +1352,15 @@
         <v>0</v>
       </c>
       <c r="R14" s="0">
-        <v>2.99000000953674</v>
+        <v>3.38000011444092</v>
       </c>
       <c r="T14" s="0">
-        <v>3.75</v>
-      </c>
-      <c r="AB14" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, Temp, Elev from AEIDCClimatological Summary, 1942-87; wind m/s from WERA; dT from BEES;</t>
+        <v>4.40000009536743</v>
+      </c>
+      <c r="AB14" s="0" t="inlineStr"/>
+      <c r="AC14" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; HDD, Temp, Elev from AEIDCClimatological Summary, 1942-87; wind m/s from WERA; dT from BEES;</t>
         </is>
       </c>
     </row>
@@ -1391,14 +1416,15 @@
         <v>0</v>
       </c>
       <c r="R15" s="0">
-        <v>2.75</v>
+        <v>3.08999991416931</v>
       </c>
       <c r="T15" s="0">
         <v>4.03999996185303</v>
       </c>
-      <c r="AB15" s="0" t="inlineStr">
-        <is>
-          <t> Fuel costs from  1/2018; HDD, Temp, Elev from AEIDCClimatological Summary, 1973-78; wind nearest - Talkeetna; oil costs from Fisher's Fuel; propane from Amerigas</t>
+      <c r="AB15" s="0" t="inlineStr"/>
+      <c r="AC15" s="0" t="inlineStr">
+        <is>
+          <t> Fuel costs from  7/2018; HDD, Temp, Elev from AEIDCClimatological Summary, 1973-78; wind nearest - Talkeetna; oil costs from Fisher's Fuel; propane from Amerigas</t>
         </is>
       </c>
     </row>
@@ -1454,14 +1480,15 @@
         <v>0</v>
       </c>
       <c r="R16" s="0">
-        <v>3.25</v>
+        <v>3.48000001907349</v>
       </c>
       <c r="T16" s="0">
-        <v>3.59999990463257</v>
-      </c>
-      <c r="AB16" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018; HDD, Temp, Elev from AEIDCClimatological Summary, 1983-87; wind from WERA map class;</t>
+        <v>4</v>
+      </c>
+      <c r="AB16" s="0" t="inlineStr"/>
+      <c r="AC16" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018; HDD, Temp, Elev from AEIDCClimatological Summary, 1983-87; wind from WERA map class;</t>
         </is>
       </c>
     </row>
@@ -1519,7 +1546,8 @@
       <c r="R17" s="0">
         <v>3.46000003814697</v>
       </c>
-      <c r="AB17" s="0" t="inlineStr">
+      <c r="AB17" s="0" t="inlineStr"/>
+      <c r="AC17" s="0" t="inlineStr">
         <is>
           <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018; HDD, Temp, Elev from AEIDCClimatological Summary, 1947-54, wind from WERA map class</t>
         </is>
@@ -1585,7 +1613,8 @@
       <c r="T18" s="0">
         <v>8.47000026702881</v>
       </c>
-      <c r="AB18" s="0" t="inlineStr">
+      <c r="AB18" s="0" t="inlineStr"/>
+      <c r="AC18" s="0" t="inlineStr">
         <is>
           <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018; HDD, Temp, Elev from AEIDCClimatological Summary, 1962-72, wind and dT from nearest: Ft. Yukon;</t>
         </is>
@@ -1643,14 +1672,15 @@
         <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>2.75</v>
+        <v>3.08999991416931</v>
       </c>
       <c r="T19" s="0">
         <v>4.03999996185303</v>
       </c>
-      <c r="AB19" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; Temp, Elev from AEIDCClimatological Summary, 1922-33; wind from WERA map class, HDD from nearest (Sutton) modified for altitude; oil from Fisher's Fuel (Big Lake), propane from Mat Valley Propane</t>
+      <c r="AB19" s="0" t="inlineStr"/>
+      <c r="AC19" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; Temp, Elev from AEIDCClimatological Summary, 1922-33; wind from WERA map class, HDD from nearest (Sutton) modified for altitude; oil from Fisher's Fuel (Big Lake), propane from Mat Valley Propane</t>
         </is>
       </c>
     </row>
@@ -1706,14 +1736,15 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>3.45000004768372</v>
+        <v>3.70000004768372</v>
       </c>
       <c r="T20" s="0">
         <v>3.5</v>
       </c>
-      <c r="AB20" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018; Elev from AEIDCClimatological Summary, 1953-54; HDD, Temp from nearest: Eagle</t>
+      <c r="AB20" s="0" t="inlineStr"/>
+      <c r="AC20" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018; Elev from AEIDCClimatological Summary, 1953-54; HDD, Temp from nearest: Eagle</t>
         </is>
       </c>
     </row>
@@ -1769,17 +1800,16 @@
         <v>0</v>
       </c>
       <c r="R21" s="0">
-        <v>3.50999999046326</v>
-      </c>
-      <c r="S21" s="0">
-        <v>3.50999999046326</v>
-      </c>
+        <v>2.95000004768372</v>
+      </c>
+      <c r="S21" s="0"/>
       <c r="T21" s="0">
         <v>10.1700000762939</v>
       </c>
-      <c r="AB21" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2017;  HDD, Temp, Elev from AEIDCClimatological Summary, 1967-78;wind from WERA map class;</t>
+      <c r="AB21" s="0" t="inlineStr"/>
+      <c r="AC21" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018;  HDD, Temp, Elev from AEIDCClimatological Summary, 1967-78;wind from WERA map class;</t>
         </is>
       </c>
     </row>
@@ -1835,14 +1865,15 @@
         <v>0</v>
       </c>
       <c r="R22" s="0">
-        <v>2.79999995231628</v>
+        <v>3.0699999332428</v>
       </c>
       <c r="T22" s="0">
-        <v>3.60999989509583</v>
-      </c>
-      <c r="AB22" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018; HDD, Temp, Elev from AEIDCClimatological Summary, 1922-71;wind from WERA map class;</t>
+        <v>3.65000009536743</v>
+      </c>
+      <c r="AB22" s="0" t="inlineStr"/>
+      <c r="AC22" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018; HDD, Temp, Elev from AEIDCClimatological Summary, 1922-71;wind from WERA map class;</t>
         </is>
       </c>
     </row>
@@ -1901,11 +1932,12 @@
         <v>21</v>
       </c>
       <c r="R23" s="0">
-        <v>3.45000004768372</v>
-      </c>
-      <c r="AB23" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, Temp, Elev from AEIDCClimatological Summary, 1957-87</t>
+        <v>3.3199999332428</v>
+      </c>
+      <c r="AB23" s="0" t="inlineStr"/>
+      <c r="AC23" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; HDD, Temp, Elev from AEIDCClimatological Summary, 1957-87</t>
         </is>
       </c>
     </row>
@@ -1961,14 +1993,15 @@
         <v>0</v>
       </c>
       <c r="R24" s="0">
-        <v>3.25</v>
+        <v>3.48000001907349</v>
       </c>
       <c r="T24" s="0">
-        <v>5.69999980926514</v>
-      </c>
-      <c r="AB24" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018; HDD, Temp, Elev from AEIDCClimatological Summary, 1965-87; wind nearest - Nenana; fuel prices from Nenana Fuel,</t>
+        <v>4</v>
+      </c>
+      <c r="AB24" s="0" t="inlineStr"/>
+      <c r="AC24" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018; HDD, Temp, Elev from AEIDCClimatological Summary, 1965-87; wind nearest - Nenana; fuel prices from Nenana Fuel,</t>
         </is>
       </c>
     </row>
@@ -2024,17 +2057,18 @@
         <v>0</v>
       </c>
       <c r="R25" s="0">
-        <v>3.14000010490417</v>
+        <v>3.5</v>
       </c>
       <c r="S25" s="0">
-        <v>3.14000010490417</v>
+        <v>3.45000004768372</v>
       </c>
       <c r="T25" s="0">
         <v>2.83999991416931</v>
       </c>
-      <c r="AB25" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018 survey; HDD, Temp, Elev from AEIDCClimatological Summary, 1970-76</t>
+      <c r="AB25" s="0" t="inlineStr"/>
+      <c r="AC25" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018 survey; HDD, Temp, Elev from AEIDCClimatological Summary, 1970-76</t>
         </is>
       </c>
     </row>
@@ -2090,11 +2124,12 @@
         <v>0</v>
       </c>
       <c r="R26" s="0">
-        <v>4.3899998664856</v>
-      </c>
-      <c r="AB26" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018; Weather info in Weather database - DO NOT ENTER HERE; oil from Frosty Fuel, 3/98;</t>
+        <v>4.78999996185303</v>
+      </c>
+      <c r="AB26" s="0" t="inlineStr"/>
+      <c r="AC26" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018; Weather info in Weather database - DO NOT ENTER HERE; oil from Frosty Fuel, 3/98;</t>
         </is>
       </c>
     </row>
@@ -2150,17 +2185,20 @@
         <v>0</v>
       </c>
       <c r="R27" s="0">
-        <v>2.69000005722046</v>
+        <v>3</v>
       </c>
       <c r="T27" s="0">
-        <v>4.5</v>
-      </c>
-      <c r="AA27" s="0">
-        <v>2.99999993294477E-02</v>
-      </c>
+        <v>4.19999980926514</v>
+      </c>
+      <c r="AA27" s="0"/>
       <c r="AB27" s="0" t="inlineStr">
         <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from ; HDD, Temp, Elev from AEIDCClimatological Summary, 1975-87;</t>
+          <t>2.99999993294477E-02</t>
+        </is>
+      </c>
+      <c r="AC27" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/18 ; HDD, Temp, Elev from AEIDCClimatological Summary, 1975-87;</t>
         </is>
       </c>
     </row>
@@ -2216,14 +2254,15 @@
         <v>0</v>
       </c>
       <c r="R28" s="0">
-        <v>2.75</v>
+        <v>3.00999999046326</v>
       </c>
       <c r="T28" s="0">
-        <v>3.44000005722046</v>
-      </c>
-      <c r="AB28" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018; HDD,  Elev from AEIDCClimatological Summary, 1961-70;72-82;</t>
+        <v>3.50999999046326</v>
+      </c>
+      <c r="AB28" s="0" t="inlineStr"/>
+      <c r="AC28" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018; HDD,  Elev from AEIDCClimatological Summary, 1961-70;72-82;</t>
         </is>
       </c>
     </row>
@@ -2279,14 +2318,15 @@
         <v>0</v>
       </c>
       <c r="R29" s="0">
-        <v>3.00999999046326</v>
+        <v>3.40000009536743</v>
       </c>
       <c r="T29" s="0">
-        <v>4</v>
-      </c>
-      <c r="AB29" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. NO SALES TAX ON FUEL FOR RESIDENTIAL; 6% for commercial: fuel costs from  1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1955-66;68-71;86-87; dT from BEES; wind m/s from WERA;oil and propane costs from Novak's Fuel, Hoover's Movers (propane),</t>
+        <v>4.25</v>
+      </c>
+      <c r="AB29" s="0" t="inlineStr"/>
+      <c r="AC29" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. NO SALES TAX ON FUEL FOR RESIDENTIAL; 6% for commercial: fuel costs from  7/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1955-66;68-71;86-87; dT from BEES; wind m/s from WERA;oil and propane costs from Novak's Fuel, Hoover's Movers (propane),</t>
         </is>
       </c>
     </row>
@@ -2347,9 +2387,10 @@
       <c r="T30" s="0">
         <v>8.47000026702881</v>
       </c>
-      <c r="AB30" s="0" t="inlineStr">
-        <is>
-          <t>Fuel prices from 1/2018</t>
+      <c r="AB30" s="0" t="inlineStr"/>
+      <c r="AC30" s="0" t="inlineStr">
+        <is>
+          <t>Fuel prices from 7/2018</t>
         </is>
       </c>
     </row>
@@ -2410,9 +2451,10 @@
       <c r="T31" s="0">
         <v>6</v>
       </c>
-      <c r="AB31" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. Fuel update 1/2018; there is such a large discrepancy between residential subsidized rate and commercial rate ($2.50/$8.50) ; wind from WERA,elev. From Ak. Wilderness Milepost 1989;</t>
+      <c r="AB31" s="0" t="inlineStr"/>
+      <c r="AC31" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. There is such a large discrepancy between residential subsidized rate and commercial rate ($2.50/$8.50) ; wind from WERA,elev. From Ak. Wilderness Milepost 1989; 7/2018</t>
         </is>
       </c>
     </row>
@@ -2468,14 +2510,15 @@
         <v>0</v>
       </c>
       <c r="R32" s="0">
-        <v>2.29999995231628</v>
+        <v>5.51000022888184</v>
       </c>
       <c r="T32" s="0">
         <v>7.63000011444092</v>
       </c>
-      <c r="AB32" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; elev.from Ak. Wilderness Milepost 1989, weather from Barrow; oil and propane from 12/07  survey</t>
+      <c r="AB32" s="0" t="inlineStr"/>
+      <c r="AC32" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; elev.from Ak. Wilderness Milepost 1989, weather from Barrow; oil and propane from 12/07  survey</t>
         </is>
       </c>
     </row>
@@ -2536,9 +2579,10 @@
       <c r="T33" s="0">
         <v>11.5699996948242</v>
       </c>
-      <c r="AB33" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. There are two listings for Point Hope because here is such a large discrepancy between residential subsidized rate and commercial rate ($1.99/$7.99) 1/2018; wind from WERA,; HDD, db temp from AEIDC, 1924-27, 41-54,82; 7/17;</t>
+      <c r="AB33" s="0" t="inlineStr"/>
+      <c r="AC33" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. There are two listings for Point Hope because here is such a large discrepancy between residential subsidized rate and commercial rate ($1.99/$7.99) 7/2018; wind from WERA,; HDD, db temp from AEIDC, 1924-27, 41-54,82; 7/17;</t>
         </is>
       </c>
     </row>
@@ -2594,14 +2638,15 @@
         <v>0</v>
       </c>
       <c r="R34" s="0">
-        <v>1.74000000953674</v>
+        <v>1.45000004768372</v>
       </c>
       <c r="T34" s="0">
         <v>8.47000026702881</v>
       </c>
-      <c r="AB34" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. Two listings for Point Lay  because there is such a large discrepancy between residential subsidized rate and commercial rate ($1.74/$7.44) ; wind from WERA,; HDD, db temp from AEIDC, 1924-27, 41-54,82; 7/15</t>
+      <c r="AB34" s="0" t="inlineStr"/>
+      <c r="AC34" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. Two listings for Point Lay  because there is such a large discrepancy between residential subsidized rate and commercial rate ($1.45/$7.44) ; wind from WERA,; HDD, db temp from AEIDC, 1924-27, 41-54,82; 7/15</t>
         </is>
       </c>
     </row>
@@ -2662,9 +2707,10 @@
       <c r="T35" s="0">
         <v>14.6199998855591</v>
       </c>
-      <c r="AB35" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. There is a large discrepancy between residential subsidized rate and commercial rate ($1.50/$5.96) ; wind from WERA,;  Design temp from BEES Appendix; fuel prices from 1/2018</t>
+      <c r="AB35" s="0" t="inlineStr"/>
+      <c r="AC35" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. There is a large discrepancy between residential subsidized rate and commercial rate ($1.50/$5.96) ; wind from WERA,;  Design temp from BEES Appendix; fuel prices from 7/2018</t>
         </is>
       </c>
     </row>
@@ -2719,10 +2765,12 @@
       <c r="P36" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="Z36" s="0">
+      <c r="Z36" s="0"/>
+      <c r="AA36" s="0">
         <v>2.99999993294477E-02</v>
       </c>
-      <c r="AB36" s="0" t="inlineStr">
+      <c r="AB36" s="0" t="inlineStr"/>
+      <c r="AC36" s="0" t="inlineStr">
         <is>
           <t>Oct 2016 Weather and Location Data. wind from WERA map class,Elev. From Alaska Wilderness Milepost 1989, dT from nearest: Bettles; fuel  flown in by Everts in Fairbanks</t>
         </is>
@@ -2785,12 +2833,14 @@
       <c r="T37" s="0">
         <v>10.8100004196167</v>
       </c>
-      <c r="Z37" s="0">
+      <c r="Z37" s="0"/>
+      <c r="AA37" s="0">
         <v>5.99999986588955E-02</v>
       </c>
-      <c r="AB37" s="0" t="inlineStr">
-        <is>
-          <t>fuel costs from  1/2018; weather info from nearest:Candle, Elev. At airstrip)from Alaska Wilderness Milepost 1989, dT extrapolatedfrom nearest: Kotzebue,</t>
+      <c r="AB37" s="0" t="inlineStr"/>
+      <c r="AC37" s="0" t="inlineStr">
+        <is>
+          <t>fuel costs from  7/2018; weather info from nearest:Candle, Elev. At airstrip)from Alaska Wilderness Milepost 1989, dT extrapolatedfrom nearest: Kotzebue,</t>
         </is>
       </c>
     </row>
@@ -2846,17 +2896,19 @@
         <v>0</v>
       </c>
       <c r="R38" s="0">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="T38" s="0">
-        <v>9.76000022888184</v>
-      </c>
-      <c r="Z38" s="0">
+        <v>11.7399997711182</v>
+      </c>
+      <c r="Z38" s="0"/>
+      <c r="AA38" s="0">
         <v>2.99999993294477E-02</v>
       </c>
-      <c r="AB38" s="0" t="inlineStr">
-        <is>
-          <t>10/2016 Weather and Location Data. fuel costs from  1/2018; elev. (at airstrip) from Ak. Wilderness Milepost 1989, HDD,dbT, wind from nearest: Candle</t>
+      <c r="AB38" s="0" t="inlineStr"/>
+      <c r="AC38" s="0" t="inlineStr">
+        <is>
+          <t>10/2016 Weather and Location Data. fuel costs from  7/2018; elev. (at airstrip) from Ak. Wilderness Milepost 1989, HDD,dbT, wind from nearest: Candle</t>
         </is>
       </c>
     </row>
@@ -2914,12 +2966,14 @@
       <c r="R39" s="0">
         <v>5.5</v>
       </c>
-      <c r="Z39" s="0">
+      <c r="Z39" s="0"/>
+      <c r="AA39" s="0">
         <v>2.99999993294477E-02</v>
       </c>
-      <c r="AB39" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018; elev.  From Ak. Wilderness Milepost 1989, weather from nearest: Ambler;</t>
+      <c r="AB39" s="0" t="inlineStr"/>
+      <c r="AC39" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018; elev.  From Ak. Wilderness Milepost 1989, weather from nearest: Ambler;</t>
         </is>
       </c>
     </row>
@@ -2980,12 +3034,14 @@
       <c r="T40" s="0">
         <v>11.8199996948242</v>
       </c>
-      <c r="Z40" s="0">
+      <c r="Z40" s="0"/>
+      <c r="AA40" s="0">
         <v>1.99999995529652E-02</v>
       </c>
-      <c r="AB40" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1973-76, wind from WERA map class;</t>
+      <c r="AB40" s="0" t="inlineStr"/>
+      <c r="AC40" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1973-76, wind from WERA map class;</t>
         </is>
       </c>
     </row>
@@ -3046,9 +3102,10 @@
       <c r="T41" s="0">
         <v>12.9200000762939</v>
       </c>
-      <c r="AB41" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. Fuel costs from 1/2018; HDD, Temp, Elev from AEIDCClimatological Summary, 1953-54;64-79;</t>
+      <c r="AB41" s="0" t="inlineStr"/>
+      <c r="AC41" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. Fuel costs from 7/2018; HDD, Temp, Elev from AEIDCClimatological Summary, 1953-54;64-79;</t>
         </is>
       </c>
     </row>
@@ -3104,17 +3161,19 @@
         <v>0</v>
       </c>
       <c r="R42" s="0">
-        <v>5.19000005722046</v>
+        <v>5.84999990463257</v>
       </c>
       <c r="T42" s="0">
-        <v>7.51999998092651</v>
-      </c>
-      <c r="Z42" s="0">
+        <v>8.10999965667725</v>
+      </c>
+      <c r="Z42" s="0"/>
+      <c r="AA42" s="0">
         <v>5.99999986588955E-02</v>
       </c>
-      <c r="AB42" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018;  Weather info in Weather database - DO NOT ENTER HERE;</t>
+      <c r="AB42" s="0" t="inlineStr"/>
+      <c r="AC42" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018;  Weather info in Weather database - DO NOT ENTER HERE;</t>
         </is>
       </c>
     </row>
@@ -3172,9 +3231,10 @@
       <c r="R43" s="0">
         <v>8.98999977111816</v>
       </c>
-      <c r="AB43" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; elev. From Ak. Wilderness Milepost 1989, HDD, dbT, wind from Kivalina;</t>
+      <c r="AB43" s="0" t="inlineStr"/>
+      <c r="AC43" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; elev. From Ak. Wilderness Milepost 1989, HDD, dbT, wind from Kivalina;</t>
         </is>
       </c>
     </row>
@@ -3235,12 +3295,14 @@
       <c r="T44" s="0">
         <v>13.210000038147</v>
       </c>
-      <c r="Z44" s="0">
+      <c r="Z44" s="0"/>
+      <c r="AA44" s="0">
         <v>3.99999991059303E-02</v>
       </c>
-      <c r="AB44" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; weather from Ambler</t>
+      <c r="AB44" s="0" t="inlineStr"/>
+      <c r="AC44" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; weather from Ambler</t>
         </is>
       </c>
     </row>
@@ -3301,10 +3363,12 @@
       <c r="T45" s="0">
         <v>13.5699996948242</v>
       </c>
-      <c r="Z45" s="0">
+      <c r="Z45" s="0"/>
+      <c r="AA45" s="0">
         <v>6.49999976158142E-02</v>
       </c>
-      <c r="AB45" s="0" t="inlineStr">
+      <c r="AB45" s="0" t="inlineStr"/>
+      <c r="AC45" s="0" t="inlineStr">
         <is>
           <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, Temp, Elev from AEIDCClimatological Summary, 1953-55, dT from Kotzebue;</t>
         </is>
@@ -3364,12 +3428,14 @@
       <c r="R46" s="0">
         <v>8.25</v>
       </c>
-      <c r="Z46" s="0">
+      <c r="Z46" s="0"/>
+      <c r="AA46" s="0">
         <v>1.99999995529652E-02</v>
       </c>
-      <c r="AB46" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. ffuel costs from 1/2018; wind from WERA map class, HDD from BEES,elev. From Ak. Wilderness Milepost 1989, oil and propane from 11/01 phone survey of Shungnak Native Store</t>
+      <c r="AB46" s="0" t="inlineStr"/>
+      <c r="AC46" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. ffuel costs from 7/2018; wind from WERA map class, HDD from BEES,elev. From Ak. Wilderness Milepost 1989, oil and propane from 11/01 phone survey of Shungnak Native Store</t>
         </is>
       </c>
     </row>
@@ -3430,12 +3496,14 @@
       <c r="T47" s="0">
         <v>11.5699996948242</v>
       </c>
-      <c r="Z47" s="0">
+      <c r="Z47" s="0"/>
+      <c r="AA47" s="0">
         <v>2.99999993294477E-02</v>
       </c>
-      <c r="AB47" s="0" t="inlineStr">
-        <is>
-          <t>Fuel costs from  1/2018;  weather from nearest city: Nome,elev. From Alaska Wilderness Milepost 1989;</t>
+      <c r="AB47" s="0" t="inlineStr"/>
+      <c r="AC47" s="0" t="inlineStr">
+        <is>
+          <t>Fuel costs from  7/2018;  weather from nearest city: Nome,elev. From Alaska Wilderness Milepost 1989;</t>
         </is>
       </c>
     </row>
@@ -3493,10 +3561,12 @@
       <c r="R48" s="0">
         <v>5</v>
       </c>
-      <c r="Z48" s="0">
+      <c r="Z48" s="0"/>
+      <c r="AA48" s="0">
         <v>3.99999991059303E-02</v>
       </c>
-      <c r="AB48" s="0" t="inlineStr">
+      <c r="AB48" s="0" t="inlineStr"/>
+      <c r="AC48" s="0" t="inlineStr">
         <is>
           <t>Oct 2016 Weather and Location Data. HDDanddbT from nearest: Wales; fuel costs from 1/2018</t>
         </is>
@@ -3554,17 +3624,19 @@
         <v>0</v>
       </c>
       <c r="R49" s="0">
-        <v>3.73000001907349</v>
+        <v>3.99000000953674</v>
       </c>
       <c r="T49" s="0">
         <v>12.8400001525879</v>
       </c>
-      <c r="Z49" s="0">
+      <c r="Z49" s="0"/>
+      <c r="AA49" s="0">
         <v>2.99999993294477E-02</v>
       </c>
-      <c r="AB49" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; elev. (at airstrip) from Ak. Wilderness Milepost 1989, HDD, dbT, wind from nearest: Golovin;</t>
+      <c r="AB49" s="0" t="inlineStr"/>
+      <c r="AC49" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; elev. (at airstrip) from Ak. Wilderness Milepost 1989, HDD, dbT, wind from nearest: Golovin;</t>
         </is>
       </c>
     </row>
@@ -3620,17 +3692,19 @@
         <v>0</v>
       </c>
       <c r="R50" s="0">
-        <v>4.25</v>
+        <v>4.32000017166138</v>
       </c>
       <c r="T50" s="0">
         <v>16.2299995422363</v>
       </c>
-      <c r="Z50" s="0">
+      <c r="Z50" s="0"/>
+      <c r="AA50" s="0">
         <v>2.99999993294477E-02</v>
       </c>
-      <c r="AB50" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1949-87;</t>
+      <c r="AB50" s="0" t="inlineStr"/>
+      <c r="AC50" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1949-87;</t>
         </is>
       </c>
     </row>
@@ -3691,9 +3765,10 @@
       <c r="T51" s="0">
         <v>16.7000007629395</v>
       </c>
-      <c r="AB51" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; Norman's database, wind from WERA map class, elev. (at airstrip) from Ak. Wilderness Milepost 1989;</t>
+      <c r="AB51" s="0" t="inlineStr"/>
+      <c r="AC51" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; Norman's database, wind from WERA map class, elev. (at airstrip) from Ak. Wilderness Milepost 1989;</t>
         </is>
       </c>
     </row>
@@ -3754,12 +3829,14 @@
       <c r="T52" s="0">
         <v>11.4200000762939</v>
       </c>
-      <c r="Z52" s="0">
+      <c r="Z52" s="0"/>
+      <c r="AA52" s="0">
         <v>1.99999995529652E-02</v>
       </c>
-      <c r="AB52" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018; wind from WERA map class, elev. (at airstrip) from Ak. Wilderness Milepost 1989, HDD and dbT from Golovin;</t>
+      <c r="AB52" s="0" t="inlineStr"/>
+      <c r="AC52" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018; wind from WERA map class, elev. (at airstrip) from Ak. Wilderness Milepost 1989, HDD and dbT from Golovin;</t>
         </is>
       </c>
     </row>
@@ -3815,17 +3892,19 @@
         <v>0</v>
       </c>
       <c r="R53" s="0">
-        <v>4.65999984741211</v>
+        <v>5.15000009536743</v>
       </c>
       <c r="T53" s="0">
-        <v>6.09999990463257</v>
-      </c>
-      <c r="Z53" s="0">
+        <v>7.57999992370605</v>
+      </c>
+      <c r="Z53" s="0"/>
+      <c r="AA53" s="0">
         <v>5.00000007450581E-02</v>
       </c>
-      <c r="AB53" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018, including tax; Weather info in Weather database - DO NOT ENTER HERE;</t>
+      <c r="AB53" s="0" t="inlineStr"/>
+      <c r="AC53" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018, including tax; Weather info in Weather database - DO NOT ENTER HERE;</t>
         </is>
       </c>
     </row>
@@ -3886,12 +3965,14 @@
       <c r="T54" s="0">
         <v>10.1300001144409</v>
       </c>
-      <c r="Z54" s="0">
+      <c r="Z54" s="0"/>
+      <c r="AA54" s="0">
         <v>3.99999991059303E-02</v>
       </c>
-      <c r="AB54" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1922-33. wind from WERA map class, elev. (at airstrip) from Ak. Wilderness Milepost 1989</t>
+      <c r="AB54" s="0" t="inlineStr"/>
+      <c r="AC54" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1922-33. wind from WERA map class, elev. (at airstrip) from Ak. Wilderness Milepost 1989</t>
         </is>
       </c>
     </row>
@@ -3947,17 +4028,19 @@
         <v>0</v>
       </c>
       <c r="R55" s="0">
-        <v>4.25</v>
+        <v>4.44999980926514</v>
       </c>
       <c r="T55" s="0">
-        <v>19.2800006866455</v>
-      </c>
-      <c r="Z55" s="0">
+        <v>14.1899995803833</v>
+      </c>
+      <c r="Z55" s="0"/>
+      <c r="AA55" s="0">
         <v>2.99999993294477E-02</v>
       </c>
-      <c r="AB55" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018;  HDD, Temp, Elev from AEIDCClimatological Summary, 1929-38;47-49;86-87 elev. (at airstrip) from Ak. Wilderness Milepost 1989,</t>
+      <c r="AB55" s="0" t="inlineStr"/>
+      <c r="AC55" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018;  HDD, Temp, Elev from AEIDCClimatological Summary, 1929-38;47-49;86-87 elev. (at airstrip) from Ak. Wilderness Milepost 1989,</t>
         </is>
       </c>
     </row>
@@ -4013,17 +4096,19 @@
         <v>0</v>
       </c>
       <c r="R56" s="0">
-        <v>4.07999992370605</v>
+        <v>4.57999992370605</v>
       </c>
       <c r="T56" s="0">
-        <v>16.9500007629395</v>
-      </c>
-      <c r="Z56" s="0">
+        <v>16.7399997711182</v>
+      </c>
+      <c r="Z56" s="0"/>
+      <c r="AA56" s="0">
         <v>3.99999991059303E-02</v>
       </c>
-      <c r="AB56" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD from nearest: Unalakleet, elev. (at airstrip) from Ak. Wilderness Milepost 1989,</t>
+      <c r="AB56" s="0" t="inlineStr"/>
+      <c r="AC56" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; HDD from nearest: Unalakleet, elev. (at airstrip) from Ak. Wilderness Milepost 1989,</t>
         </is>
       </c>
     </row>
@@ -4079,17 +4164,19 @@
         <v>0</v>
       </c>
       <c r="R57" s="0">
-        <v>3.79999995231628</v>
+        <v>4.28999996185303</v>
       </c>
       <c r="T57" s="0">
-        <v>12.0799999237061</v>
-      </c>
-      <c r="Z57" s="0">
+        <v>16.9099998474121</v>
+      </c>
+      <c r="Z57" s="0"/>
+      <c r="AA57" s="0">
         <v>1.99999995529652E-02</v>
       </c>
-      <c r="AB57" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, Elev from AEIDCClimatological Summary, 1922-29;32-37;42-52,</t>
+      <c r="AB57" s="0" t="inlineStr"/>
+      <c r="AC57" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; HDD, Elev from AEIDCClimatological Summary, 1922-29;32-37;42-52,</t>
         </is>
       </c>
     </row>
@@ -4145,17 +4232,19 @@
         <v>0</v>
       </c>
       <c r="R58" s="0">
-        <v>4.51999998092651</v>
+        <v>4.40999984741211</v>
       </c>
       <c r="T58" s="0">
         <v>11.5699996948242</v>
       </c>
-      <c r="Z58" s="0">
+      <c r="Z58" s="0"/>
+      <c r="AA58" s="0">
         <v>2.99999993294477E-02</v>
       </c>
-      <c r="AB58" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; elev.from Ak. Wilderness Milepost 1989, HDD, dbT, wind from nearest: St. Michael, dT from Unalakleet;  oil and propane costs 11/01 phone survey</t>
+      <c r="AB58" s="0" t="inlineStr"/>
+      <c r="AC58" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; elev.from Ak. Wilderness Milepost 1989, HDD, dbT, wind from nearest: St. Michael, dT from Unalakleet;  oil and propane costs 11/01 phone survey</t>
         </is>
       </c>
     </row>
@@ -4211,17 +4300,19 @@
         <v>0</v>
       </c>
       <c r="R59" s="0">
-        <v>5.30000019073486</v>
+        <v>5.15999984741211</v>
       </c>
       <c r="T59" s="0">
         <v>11.4399995803833</v>
       </c>
-      <c r="Z59" s="0">
+      <c r="Z59" s="0"/>
+      <c r="AA59" s="0">
         <v>2.99999993294477E-02</v>
       </c>
-      <c r="AB59" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, Temp, Elev from AEIDCClimatological Summary, 1925-28;33-43;46-63, wind from WERA map class, dT from Nome;</t>
+      <c r="AB59" s="0" t="inlineStr"/>
+      <c r="AC59" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; HDD, Temp, Elev from AEIDCClimatological Summary, 1925-28;33-43;46-63, wind from WERA map class, dT from Nome;</t>
         </is>
       </c>
     </row>
@@ -4280,12 +4371,14 @@
         <v>3.94000005722046</v>
       </c>
       <c r="T60" s="0">
-        <v>12.0299997329712</v>
-      </c>
-      <c r="Z60" s="0">
+        <v>12.5</v>
+      </c>
+      <c r="Z60" s="0"/>
+      <c r="AA60" s="0">
         <v>5.00000007450581E-02</v>
       </c>
-      <c r="AB60" s="0" t="inlineStr">
+      <c r="AB60" s="0" t="inlineStr"/>
+      <c r="AC60" s="0" t="inlineStr">
         <is>
           <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018;  HDD, Temp, Elev from AEIDC Climatological Summary, 1941-87; design temp; wind - Norman's database; oil and propane costs from Native Corp. 11/03  survey</t>
         </is>
@@ -4345,12 +4438,14 @@
       <c r="R61" s="0">
         <v>6.25</v>
       </c>
-      <c r="Z61" s="0">
+      <c r="Z61" s="0"/>
+      <c r="AA61" s="0">
         <v>2.99999993294477E-02</v>
       </c>
-      <c r="AB61" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, Temp, Elev from AEIDCClimatological Summary, 1944-87</t>
+      <c r="AB61" s="0" t="inlineStr"/>
+      <c r="AC61" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; HDD, Temp, Elev from AEIDCClimatological Summary, 1944-87</t>
         </is>
       </c>
     </row>
@@ -4406,17 +4501,19 @@
         <v>0</v>
       </c>
       <c r="R62" s="0">
-        <v>3.5</v>
+        <v>4.38000011444092</v>
       </c>
       <c r="T62" s="0">
-        <v>15.8900003433228</v>
-      </c>
-      <c r="Z62" s="0">
+        <v>16.5300006866455</v>
+      </c>
+      <c r="Z62" s="0"/>
+      <c r="AA62" s="0">
         <v>9.99999977648258E-03</v>
       </c>
-      <c r="AB62" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018;  Degree days, db temp from BEES Appendix,elev.from Ak. Wilderness Milepost 1989,</t>
+      <c r="AB62" s="0" t="inlineStr"/>
+      <c r="AC62" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018;  Degree days, db temp from BEES Appendix,elev.from Ak. Wilderness Milepost 1989,</t>
         </is>
       </c>
     </row>
@@ -4472,14 +4569,15 @@
         <v>0</v>
       </c>
       <c r="R63" s="0">
-        <v>5.55000019073486</v>
+        <v>5.34999990463257</v>
       </c>
       <c r="T63" s="0">
         <v>16</v>
       </c>
-      <c r="AB63" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. 3% sales tax not included for fuel; fuel costs from  1/2018; 17 m. east of Hooper Bay, elev. (at airstrip) from Alaska Wilderness Milepost 1989, HDD, dT, wind from Bethel</t>
+      <c r="AB63" s="0" t="inlineStr"/>
+      <c r="AC63" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. 3% sales tax not included for fuel; fuel costs from  7/2018; 17 m. east of Hooper Bay, elev. (at airstrip) from Alaska Wilderness Milepost 1989, HDD, dT, wind from Bethel</t>
         </is>
       </c>
     </row>
@@ -4535,17 +4633,19 @@
         <v>0</v>
       </c>
       <c r="R64" s="0">
-        <v>5.32999992370605</v>
+        <v>6.3600001335144</v>
       </c>
       <c r="T64" s="0">
-        <v>12.3999996185303</v>
-      </c>
-      <c r="Z64" s="0">
+        <v>12.4200000762939</v>
+      </c>
+      <c r="Z64" s="0"/>
+      <c r="AA64" s="0">
         <v>2.99999993294477E-02</v>
       </c>
-      <c r="AB64" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018;  HDD, Temp, Elev from AEIDCClimatological Summary, 1977-87</t>
+      <c r="AB64" s="0" t="inlineStr"/>
+      <c r="AC64" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018;  HDD, Temp, Elev from AEIDCClimatological Summary, 1977-87</t>
         </is>
       </c>
     </row>
@@ -4601,17 +4701,17 @@
         <v>0</v>
       </c>
       <c r="R65" s="0">
-        <v>4.90000009536743</v>
-      </c>
-      <c r="T65" s="0">
-        <v>13.3461542129517</v>
-      </c>
-      <c r="Z65" s="0">
+        <v>5.09999990463257</v>
+      </c>
+      <c r="T65" s="0"/>
+      <c r="Z65" s="0"/>
+      <c r="AA65" s="0">
         <v>3.99999991059303E-02</v>
       </c>
-      <c r="AB65" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018; Temp, Elev from AEIDCClimatological Summary, 1926-39; fuel prices from Yukon Fuel, 11/01 phone survey</t>
+      <c r="AB65" s="0" t="inlineStr"/>
+      <c r="AC65" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018; Temp, Elev from AEIDCClimatological Summary, 1926-39; fuel prices from Yukon Fuel, 11/01 phone survey</t>
         </is>
       </c>
     </row>
@@ -4667,17 +4767,19 @@
         <v>0</v>
       </c>
       <c r="R66" s="0">
-        <v>4.40000009536743</v>
+        <v>5.59999990463257</v>
       </c>
       <c r="T66" s="0">
         <v>12.3000001907349</v>
       </c>
-      <c r="Z66" s="0">
+      <c r="Z66" s="0"/>
+      <c r="AA66" s="0">
         <v>2.99999993294477E-02</v>
       </c>
-      <c r="AB66" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; elev. (at airstrip) from Ak. Wilderness Milepost 1989, temp -50-87 subarctic, HDD and dbT from</t>
+      <c r="AB66" s="0" t="inlineStr"/>
+      <c r="AC66" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; elev. (at airstrip) from Ak. Wilderness Milepost 1989, temp -50-87 subarctic, HDD and dbT from</t>
         </is>
       </c>
     </row>
@@ -4733,17 +4835,19 @@
         <v>0</v>
       </c>
       <c r="R67" s="0">
-        <v>5.05000019073486</v>
+        <v>5.57999992370605</v>
       </c>
       <c r="T67" s="0">
-        <v>7.46000003814697</v>
-      </c>
-      <c r="Z67" s="0">
+        <v>7.17999982833862</v>
+      </c>
+      <c r="Z67" s="0"/>
+      <c r="AA67" s="0">
         <v>3.99999991059303E-02</v>
       </c>
-      <c r="AB67" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018;  elev. (at airstrip) from Ak. Wilderness Milepost 1989, HDD, dbT, wind from St. Mary</t>
+      <c r="AB67" s="0" t="inlineStr"/>
+      <c r="AC67" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018;  elev. (at airstrip) from Ak. Wilderness Milepost 1989, HDD, dbT, wind from St. Mary</t>
         </is>
       </c>
     </row>
@@ -4799,17 +4903,19 @@
         <v>0</v>
       </c>
       <c r="R68" s="0">
-        <v>6.90999984741211</v>
+        <v>6.44999980926514</v>
       </c>
       <c r="T68" s="0">
-        <v>11.3400001525879</v>
-      </c>
-      <c r="Z68" s="0">
+        <v>13.289999961853</v>
+      </c>
+      <c r="Z68" s="0"/>
+      <c r="AA68" s="0">
         <v>2.99999993294477E-02</v>
       </c>
-      <c r="AB68" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1944-63;</t>
+      <c r="AB68" s="0" t="inlineStr"/>
+      <c r="AC68" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1944-63;</t>
         </is>
       </c>
     </row>
@@ -4867,12 +4973,14 @@
       <c r="R69" s="0">
         <v>6.03000020980835</v>
       </c>
-      <c r="Z69" s="0">
+      <c r="Z69" s="0"/>
+      <c r="AA69" s="0">
         <v>3.99999991059303E-02</v>
       </c>
-      <c r="AB69" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018 Temp, from AEIDC Climatological Summary, 1923-27;29-33, elev. (at airstrip) from Ak. Wilderness Milepost 1989, HDD from St. Mary</t>
+      <c r="AB69" s="0" t="inlineStr"/>
+      <c r="AC69" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018 Temp, from AEIDC Climatological Summary, 1923-27;29-33, elev. (at airstrip) from Ak. Wilderness Milepost 1989, HDD from St. Mary</t>
         </is>
       </c>
     </row>
@@ -4928,14 +5036,15 @@
         <v>0</v>
       </c>
       <c r="R70" s="0">
-        <v>5.46000003814697</v>
+        <v>6.26000022888184</v>
       </c>
       <c r="T70" s="0">
         <v>9.48999977111816</v>
       </c>
-      <c r="AB70" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, dbT from nearest:St. Mary's (5 mi)</t>
+      <c r="AB70" s="0" t="inlineStr"/>
+      <c r="AC70" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; HDD, dbT from nearest:St. Mary's (5 mi)</t>
         </is>
       </c>
     </row>
@@ -4996,12 +5105,14 @@
       <c r="T71" s="0">
         <v>8.61999988555908</v>
       </c>
-      <c r="Z71" s="0">
+      <c r="Z71" s="0"/>
+      <c r="AA71" s="0">
         <v>3.99999991059303E-02</v>
       </c>
-      <c r="AB71" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, Temp, Elev from AEIDCClimatological Summary, 1966-87, wind nearest Aniak,</t>
+      <c r="AB71" s="0" t="inlineStr"/>
+      <c r="AC71" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; HDD, Temp, Elev from AEIDCClimatological Summary, 1966-87, wind nearest Aniak,</t>
         </is>
       </c>
     </row>
@@ -5057,17 +5168,19 @@
         <v>0</v>
       </c>
       <c r="R72" s="0">
-        <v>5.46000003814697</v>
+        <v>6.26000022888184</v>
       </c>
       <c r="T72" s="0">
         <v>9.48999977111816</v>
       </c>
-      <c r="Z72" s="0">
+      <c r="Z72" s="0"/>
+      <c r="AA72" s="0">
         <v>2.99999993294477E-02</v>
       </c>
-      <c r="AB72" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, Temp, Elev from AEIDCClimatological Summary, 1967-83, wind from WERA map class;</t>
+      <c r="AB72" s="0" t="inlineStr"/>
+      <c r="AC72" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; HDD, Temp, Elev from AEIDCClimatological Summary, 1967-83, wind from WERA map class;</t>
         </is>
       </c>
     </row>
@@ -5123,20 +5236,23 @@
         <v>0</v>
       </c>
       <c r="R73" s="0">
-        <v>5.13000011444092</v>
+        <v>5.98999977111816</v>
       </c>
       <c r="T73" s="0">
-        <v>11.1000003814697</v>
-      </c>
-      <c r="Z73" s="0">
+        <v>14.1099996566772</v>
+      </c>
+      <c r="Z73" s="0"/>
+      <c r="AA73" s="0">
         <v>3.99999991059303E-02</v>
       </c>
-      <c r="AA73" s="0">
-        <v>0.025000000372529</v>
-      </c>
       <c r="AB73" s="0" t="inlineStr">
         <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD and dbT from Cape Romanzof, AEIDC Climatological Summary, 1953-87;</t>
+          <t>0.025000000372529</t>
+        </is>
+      </c>
+      <c r="AC73" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; HDD and dbT from Cape Romanzof, AEIDC Climatological Summary, 1953-87;</t>
         </is>
       </c>
     </row>
@@ -5197,10 +5313,12 @@
       <c r="T74" s="0">
         <v>11.6153841018677</v>
       </c>
-      <c r="Z74" s="0">
+      <c r="Z74" s="0"/>
+      <c r="AA74" s="0">
         <v>3.99999991059303E-02</v>
       </c>
-      <c r="AB74" s="0" t="inlineStr">
+      <c r="AB74" s="0" t="inlineStr"/>
+      <c r="AC74" s="0" t="inlineStr">
         <is>
           <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, dbT from Emmonak; oil and propane costs from ISER survey May 1993;</t>
         </is>
@@ -5260,9 +5378,10 @@
       <c r="R75" s="0">
         <v>5.07999992370605</v>
       </c>
-      <c r="AB75" s="0" t="inlineStr">
-        <is>
-          <t>Weather and Location Data. fuel costs from 1/2018; Elev. From Alaska Wilderness Milepost 1989, weather data from nearest: Bethel; Fuel costs from  Akiachak Fuel</t>
+      <c r="AB75" s="0" t="inlineStr"/>
+      <c r="AC75" s="0" t="inlineStr">
+        <is>
+          <t>Weather and Location Data. fuel costs from 7/2018; Elev. From Alaska Wilderness Milepost 1989, weather data from nearest: Bethel; Fuel costs from  Akiachak Fuel</t>
         </is>
       </c>
     </row>
@@ -5318,14 +5437,16 @@
         <v>0</v>
       </c>
       <c r="R76" s="0">
-        <v>4.78000020980835</v>
-      </c>
-      <c r="T76" s="0">
-        <v>7.65999984741211</v>
-      </c>
-      <c r="AB76" s="0" t="inlineStr">
-        <is>
-          <t> Weather and Location Data. Fuel costs from 1/2018;  Elev. From Alaska Wilderness Milepost 1989, HDD, dbT, dT, wind from nearest: Bethel; fuel prices from 7/2017</t>
+        <v>5.69000005722046</v>
+      </c>
+      <c r="S76" s="0">
+        <v>5.69000005722046</v>
+      </c>
+      <c r="T76" s="0"/>
+      <c r="AB76" s="0" t="inlineStr"/>
+      <c r="AC76" s="0" t="inlineStr">
+        <is>
+          <t> Weather and Location Data. Fuel costs from 7/2018;  Elev. From Alaska Wilderness Milepost 1989, HDD, dbT, dT, wind from nearest: Bethel; fuel prices from 7/2017</t>
         </is>
       </c>
     </row>
@@ -5381,14 +5502,15 @@
         <v>0</v>
       </c>
       <c r="R77" s="0">
-        <v>4.8600001335144</v>
+        <v>4.96000003814697</v>
       </c>
       <c r="T77" s="0">
         <v>7.19999980926514</v>
       </c>
-      <c r="AB77" s="0" t="inlineStr">
-        <is>
-          <t>Fuel costs from  1/2018; Elev.at airstrip from Alaska Wilderness Milepost 1989, weather data from nearest: Bethel; Fuel costs  Athmauthluak Limited</t>
+      <c r="AB77" s="0" t="inlineStr"/>
+      <c r="AC77" s="0" t="inlineStr">
+        <is>
+          <t>Fuel costs from  7/2018; Elev.at airstrip from Alaska Wilderness Milepost 1989, weather data from nearest: Bethel; Fuel costs  Athmauthluak Limited</t>
         </is>
       </c>
     </row>
@@ -5449,10 +5571,12 @@
       <c r="T78" s="0">
         <v>7.5</v>
       </c>
-      <c r="Z78" s="0">
+      <c r="Z78" s="0"/>
+      <c r="AA78" s="0">
         <v>1.99999995529652E-02</v>
       </c>
-      <c r="AB78" s="0" t="inlineStr">
+      <c r="AB78" s="0" t="inlineStr"/>
+      <c r="AC78" s="0" t="inlineStr">
         <is>
           <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018; HDD and dbT from nearest: Nunivak, elev. At airstrip) from Alaska Wilderness Milepost 1989;</t>
         </is>
@@ -5512,12 +5636,14 @@
       <c r="R79" s="0">
         <v>4</v>
       </c>
-      <c r="Z79" s="0">
+      <c r="Z79" s="0"/>
+      <c r="AA79" s="0">
         <v>1.99999995529652E-02</v>
       </c>
-      <c r="AB79" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; elev. (at airstrip) from Ak. Wilderness Milepost 1989, HDD,dbT from nearest: Cape Newenham;</t>
+      <c r="AB79" s="0" t="inlineStr"/>
+      <c r="AC79" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; elev. (at airstrip) from Ak. Wilderness Milepost 1989, HDD,dbT from nearest: Cape Newenham;</t>
         </is>
       </c>
     </row>
@@ -5578,12 +5704,14 @@
       <c r="T80" s="0">
         <v>10.1499996185303</v>
       </c>
-      <c r="Z80" s="0">
+      <c r="Z80" s="0"/>
+      <c r="AA80" s="0">
         <v>2.99999993294477E-02</v>
       </c>
-      <c r="AB80" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018; elev. (at airstrip) from Ak. Wilderness Milepost 1989, HDD and dbT from nearest: Platinum;oil and propane costs from ISER survey May 1993;</t>
+      <c r="AB80" s="0" t="inlineStr"/>
+      <c r="AC80" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018; elev. (at airstrip) from Ak. Wilderness Milepost 1989, HDD and dbT from nearest: Platinum;oil and propane costs from ISER survey May 1993;</t>
         </is>
       </c>
     </row>
@@ -5644,12 +5772,14 @@
       <c r="T81" s="0">
         <v>12.2299995422363</v>
       </c>
-      <c r="Z81" s="0">
+      <c r="Z81" s="0"/>
+      <c r="AA81" s="0">
         <v>3.99999991059303E-02</v>
       </c>
-      <c r="AB81" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; 20 miles NW of Bethel, weather data from Bethel;</t>
+      <c r="AB81" s="0" t="inlineStr"/>
+      <c r="AC81" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; 20 miles NW of Bethel, weather data from Bethel;</t>
         </is>
       </c>
     </row>
@@ -5705,14 +5835,16 @@
         <v>0</v>
       </c>
       <c r="R82" s="0">
-        <v>4.59000015258789</v>
-      </c>
-      <c r="Z82" s="0">
-        <v>0</v>
-      </c>
-      <c r="AB82" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; elev. (at airstrip) from Ak. Wilderness Milepost 1989, HDD, dbT from nearest: Cherfornak;</t>
+        <v>5.01000022888184</v>
+      </c>
+      <c r="Z82" s="0"/>
+      <c r="AA82" s="0">
+        <v>0</v>
+      </c>
+      <c r="AB82" s="0" t="inlineStr"/>
+      <c r="AC82" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; elev. (at airstrip) from Ak. Wilderness Milepost 1989, HDD, dbT from nearest: Cherfornak;</t>
         </is>
       </c>
     </row>
@@ -5770,9 +5902,10 @@
       <c r="R83" s="0">
         <v>4.57999992370605</v>
       </c>
-      <c r="AB83" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018 elev. (at airstrip) from Ak. Wilderness Milepost 1989, weather from nearest: Dillingham;</t>
+      <c r="AB83" s="0" t="inlineStr"/>
+      <c r="AC83" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018 elev. (at airstrip) from Ak. Wilderness Milepost 1989, weather from nearest: Dillingham;</t>
         </is>
       </c>
     </row>
@@ -5833,12 +5966,14 @@
       <c r="T84" s="0">
         <v>11.6000003814697</v>
       </c>
-      <c r="Z84" s="0">
+      <c r="Z84" s="0"/>
+      <c r="AA84" s="0">
         <v>5.00000007450581E-02</v>
       </c>
-      <c r="AB84" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2017; elev. (at airstrip) from Ak. Wilderness Milepost 1989, HDD, dbT, dT wind from Bethel;</t>
+      <c r="AB84" s="0" t="inlineStr"/>
+      <c r="AC84" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018; elev. (at airstrip) from Ak. Wilderness Milepost 1989, HDD, dbT, dT wind from Bethel;</t>
         </is>
       </c>
     </row>
@@ -5899,9 +6034,10 @@
       <c r="T85" s="0">
         <v>15.75</v>
       </c>
-      <c r="AB85" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018;  elev. (at airstrip) from Ak. Wilderness Milepost 1989, HDD and dbT from Cherfornak;</t>
+      <c r="AB85" s="0" t="inlineStr"/>
+      <c r="AC85" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018;  elev. (at airstrip) from Ak. Wilderness Milepost 1989, HDD and dbT from Cherfornak;</t>
         </is>
       </c>
     </row>
@@ -5962,12 +6098,14 @@
       <c r="T86" s="0">
         <v>12.539999961853</v>
       </c>
-      <c r="Z86" s="0">
+      <c r="Z86" s="0"/>
+      <c r="AA86" s="0">
         <v>3.99999991059303E-02</v>
       </c>
-      <c r="AB86" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. ; HDD, Temp, Elev from AEIDC Climatological Summary, 1982-87, wind from WERA; oil and propane costs from 1/2018</t>
+      <c r="AB86" s="0" t="inlineStr"/>
+      <c r="AC86" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. ; HDD, Temp, Elev from AEIDC Climatological Summary, 1982-87, wind from WERA; oil and propane costs from 7/2018</t>
         </is>
       </c>
     </row>
@@ -6025,12 +6163,14 @@
       <c r="R87" s="0">
         <v>4.32999992370605</v>
       </c>
-      <c r="Z87" s="0">
+      <c r="Z87" s="0"/>
+      <c r="AA87" s="0">
         <v>3.99999991059303E-02</v>
       </c>
-      <c r="AB87" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018 elev. (at airstrip) from Ak. Wilderness Milepost 1989, used Bethel weather (10 miles from Bethel)</t>
+      <c r="AB87" s="0" t="inlineStr"/>
+      <c r="AC87" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018 elev. (at airstrip) from Ak. Wilderness Milepost 1989, used Bethel weather (10 miles from Bethel)</t>
         </is>
       </c>
     </row>
@@ -6086,11 +6226,12 @@
         <v>0</v>
       </c>
       <c r="R88" s="0">
-        <v>6.40000009536743</v>
-      </c>
-      <c r="AB88" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; elev. (at airstrip) from Ak. Wilderness Milepost 1989, 8 miles from Bethel, used Bethel weather; Not tax on fuel</t>
+        <v>6.84999990463257</v>
+      </c>
+      <c r="AB88" s="0" t="inlineStr"/>
+      <c r="AC88" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; elev. (at airstrip) from Ak. Wilderness Milepost 1989, 8 miles from Bethel, used Bethel weather; Not tax on fuel</t>
         </is>
       </c>
     </row>
@@ -6148,9 +6289,10 @@
       <c r="R89" s="0">
         <v>6.71999979019165</v>
       </c>
-      <c r="AB89" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; elev. (at airstrip) from Ak. Wilderness Milepost 1989, HDD, dbT from Scammon Bay</t>
+      <c r="AB89" s="0" t="inlineStr"/>
+      <c r="AC89" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; elev. (at airstrip) from Ak. Wilderness Milepost 1989, HDD, dbT from Scammon Bay</t>
         </is>
       </c>
     </row>
@@ -6208,12 +6350,14 @@
       <c r="R90" s="0">
         <v>6.5</v>
       </c>
-      <c r="Z90" s="0">
+      <c r="Z90" s="0"/>
+      <c r="AA90" s="0">
         <v>1.99999995529652E-02</v>
       </c>
-      <c r="AB90" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; elev. (at airstrip) from Ak. Wilderness Milepost 1989, HDD, dbT from Scammon Bay</t>
+      <c r="AB90" s="0" t="inlineStr"/>
+      <c r="AC90" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; elev. (at airstrip) from Ak. Wilderness Milepost 1989, HDD, dbT from Scammon Bay</t>
         </is>
       </c>
     </row>
@@ -6269,17 +6413,17 @@
         <v>0</v>
       </c>
       <c r="R91" s="0">
-        <v>5.15000009536743</v>
-      </c>
-      <c r="T91" s="0">
-        <v>11.460000038147</v>
-      </c>
-      <c r="Z91" s="0">
+        <v>5.28999996185303</v>
+      </c>
+      <c r="T91" s="0"/>
+      <c r="Z91" s="0"/>
+      <c r="AA91" s="0">
         <v>3.99999991059303E-02</v>
       </c>
-      <c r="AB91" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; elev. From Ak. Wilderness Milepost 1989, weather from nearest: Bethel (26mi)</t>
+      <c r="AB91" s="0" t="inlineStr"/>
+      <c r="AC91" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; elev. From Ak. Wilderness Milepost 1989, weather from nearest: Bethel (26mi)</t>
         </is>
       </c>
     </row>
@@ -6338,14 +6482,13 @@
         <v>13</v>
       </c>
       <c r="R92" s="0">
-        <v>5.90000009536743</v>
-      </c>
-      <c r="T92" s="0">
-        <v>9.10000038146973</v>
-      </c>
-      <c r="AB92" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018 for Bethel; weather from nearest: Bethel (5 mi);</t>
+        <v>6.84999990463257</v>
+      </c>
+      <c r="T92" s="0"/>
+      <c r="AB92" s="0" t="inlineStr"/>
+      <c r="AC92" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018 for Bethel; weather from nearest: Bethel (5 mi);</t>
         </is>
       </c>
     </row>
@@ -6400,7 +6543,8 @@
       <c r="P93" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="AB93" s="0" t="inlineStr">
+      <c r="AB93" s="0" t="inlineStr"/>
+      <c r="AC93" s="0" t="inlineStr">
         <is>
           <t>Oct 2016 Weather and Location Data. HDD, Temp, Elev from AEIDC Climatological Summary, 1939-64;</t>
         </is>
@@ -6460,15 +6604,15 @@
       <c r="R94" s="0">
         <v>4.84999990463257</v>
       </c>
-      <c r="T94" s="0">
-        <v>5.48999977111816</v>
-      </c>
-      <c r="Z94" s="0">
+      <c r="T94" s="0"/>
+      <c r="Z94" s="0"/>
+      <c r="AA94" s="0">
         <v>2.99999993294477E-02</v>
       </c>
-      <c r="AB94" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018;  elev. (at airstrip) from Ak. Wilderness Milepost 1989, HDD and dbT from nearest:Platinum</t>
+      <c r="AB94" s="0" t="inlineStr"/>
+      <c r="AC94" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018;  elev. (at airstrip) from Ak. Wilderness Milepost 1989, HDD and dbT from nearest:Platinum</t>
         </is>
       </c>
     </row>
@@ -6524,17 +6668,17 @@
         <v>0</v>
       </c>
       <c r="R95" s="0">
-        <v>5.25</v>
-      </c>
-      <c r="T95" s="0">
-        <v>19.2299995422363</v>
-      </c>
-      <c r="Z95" s="0">
+        <v>5.5</v>
+      </c>
+      <c r="T95" s="0"/>
+      <c r="Z95" s="0"/>
+      <c r="AA95" s="0">
         <v>1.99999995529652E-02</v>
       </c>
-      <c r="AB95" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; elev. (at airstrip) from Ak. Wilderness Milepost 1989, HDD, dbT from Chefornak</t>
+      <c r="AB95" s="0" t="inlineStr"/>
+      <c r="AC95" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; elev. (at airstrip) from Ak. Wilderness Milepost 1989, HDD, dbT from Chefornak</t>
         </is>
       </c>
     </row>
@@ -6590,14 +6734,15 @@
         <v>0</v>
       </c>
       <c r="R96" s="0">
-        <v>4.78000020980835</v>
+        <v>6.32000017166138</v>
       </c>
       <c r="T96" s="0">
         <v>13.210000038147</v>
       </c>
-      <c r="AB96" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; elev. (at airstrip) from Ak. Wilderness Milepost 1989, weather from Bethel; fuel 11/07</t>
+      <c r="AB96" s="0" t="inlineStr"/>
+      <c r="AC96" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; elev. (at airstrip) from Ak. Wilderness Milepost 1989, weather from Bethel; fuel 11/07</t>
         </is>
       </c>
     </row>
@@ -6655,12 +6800,11 @@
       <c r="R97" s="0">
         <v>4.75</v>
       </c>
-      <c r="T97" s="0">
-        <v>12.710000038147</v>
-      </c>
-      <c r="AB97" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; elev. (at airstrip) from Ak. Wilderness Milepost 1989, weather from Bethel;</t>
+      <c r="T97" s="0"/>
+      <c r="AB97" s="0" t="inlineStr"/>
+      <c r="AC97" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; elev. (at airstrip) from Ak. Wilderness Milepost 1989, weather from Bethel;</t>
         </is>
       </c>
     </row>
@@ -6721,9 +6865,10 @@
       <c r="T98" s="0">
         <v>10</v>
       </c>
-      <c r="AB98" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; elev. (at airstrip) from Ak. Wilderness Milepost 1989, weather from Bethel</t>
+      <c r="AB98" s="0" t="inlineStr"/>
+      <c r="AC98" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; elev. (at airstrip) from Ak. Wilderness Milepost 1989, weather from Bethel</t>
         </is>
       </c>
     </row>
@@ -6784,9 +6929,10 @@
       <c r="T99" s="0">
         <v>11.8599996566772</v>
       </c>
-      <c r="AB99" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018; elev. (at airstrip) from Alaska Wilderness Milepost 1989, HDD, dT, wind from nearest: Aniak;</t>
+      <c r="AB99" s="0" t="inlineStr"/>
+      <c r="AC99" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018; elev. (at airstrip) from Alaska Wilderness Milepost 1989, HDD, dT, wind from nearest: Aniak;</t>
         </is>
       </c>
     </row>
@@ -6847,7 +6993,8 @@
       <c r="T100" s="0">
         <v>14.8299999237061</v>
       </c>
-      <c r="AB100" s="0" t="inlineStr">
+      <c r="AB100" s="0" t="inlineStr"/>
+      <c r="AC100" s="0" t="inlineStr">
         <is>
           <t>Oct 2016 Weather and Location Data. Fuel costs from 1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 139-57;68-74; wind</t>
         </is>
@@ -6910,7 +7057,8 @@
       <c r="T101" s="0">
         <v>13.7700004577637</v>
       </c>
-      <c r="AB101" s="0" t="inlineStr">
+      <c r="AB101" s="0" t="inlineStr"/>
+      <c r="AC101" s="0" t="inlineStr">
         <is>
           <t>Oct 2016 Weather and Location Data. Fuel costs updated 1/2018; elev. From Ak. Wilderness Milepost 1989, temps -47-82, HDD, dbT from Sleetmute</t>
         </is>
@@ -6970,9 +7118,10 @@
       <c r="R102" s="0">
         <v>5.69999980926514</v>
       </c>
-      <c r="AB102" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; elev.from Ak. Wilderness Milepost 1989,semi-arctic, HDD, dbT, wind from WERA nearest: Russian Mission;</t>
+      <c r="AB102" s="0" t="inlineStr"/>
+      <c r="AC102" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; elev.from Ak. Wilderness Milepost 1989,semi-arctic, HDD, dbT, wind from WERA nearest: Russian Mission;</t>
         </is>
       </c>
     </row>
@@ -7028,14 +7177,15 @@
         <v>0</v>
       </c>
       <c r="R103" s="0">
-        <v>6</v>
+        <v>5.90999984741211</v>
       </c>
       <c r="T103" s="0">
         <v>13.7700004577637</v>
       </c>
-      <c r="AB103" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018;    HDD, Temp, Elev from AEIDC Climatological Summary, 1957-63</t>
+      <c r="AB103" s="0" t="inlineStr"/>
+      <c r="AC103" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018;    HDD, Temp, Elev from AEIDC Climatological Summary, 1957-63</t>
         </is>
       </c>
     </row>
@@ -7093,7 +7243,8 @@
       <c r="R104" s="0">
         <v>4.59999990463257</v>
       </c>
-      <c r="AB104" s="0" t="inlineStr">
+      <c r="AB104" s="0" t="inlineStr"/>
+      <c r="AC104" s="0" t="inlineStr">
         <is>
           <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1948-51;67-68</t>
         </is>
@@ -7156,9 +7307,10 @@
       <c r="T105" s="0">
         <v>10.9700002670288</v>
       </c>
-      <c r="AB105" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018;  weather from nearest:Aniak, dT and wind from Bethel,elev.from Ak. Wilderness Milepost 1989,</t>
+      <c r="AB105" s="0" t="inlineStr"/>
+      <c r="AC105" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018;  weather from nearest:Aniak, dT and wind from Bethel,elev.from Ak. Wilderness Milepost 1989,</t>
         </is>
       </c>
     </row>
@@ -7216,10 +7368,12 @@
       <c r="R106" s="0">
         <v>3.4300000667572</v>
       </c>
-      <c r="Z106" s="0">
+      <c r="Z106" s="0"/>
+      <c r="AA106" s="0">
         <v>5.00000007450581E-02</v>
       </c>
-      <c r="AB106" s="0" t="inlineStr">
+      <c r="AB106" s="0" t="inlineStr"/>
+      <c r="AC106" s="0" t="inlineStr">
         <is>
           <t>Oct 2016 Weather and Location Data.  fuel delivered 1/2018; weather from nearest: Dillingham, elev. (at airstrip) from Alaska Wilderness Milepost 1989;</t>
         </is>
@@ -7277,17 +7431,19 @@
         <v>0</v>
       </c>
       <c r="R107" s="0">
-        <v>2.95000004768372</v>
+        <v>3.58999991416931</v>
       </c>
       <c r="T107" s="0">
-        <v>5.13000011444092</v>
-      </c>
-      <c r="Z107" s="0">
+        <v>5.15000009536743</v>
+      </c>
+      <c r="Z107" s="0"/>
+      <c r="AA107" s="0">
         <v>5.99999986588955E-02</v>
       </c>
-      <c r="AB107" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1922-87; wind from WERA map class;</t>
+      <c r="AB107" s="0" t="inlineStr"/>
+      <c r="AC107" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1922-87; wind from WERA map class;</t>
         </is>
       </c>
     </row>
@@ -7345,9 +7501,10 @@
       <c r="R108" s="0">
         <v>5.5</v>
       </c>
-      <c r="AB108" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; elev.from Ak. Wilderness Milepost 1989, HDD, dbT, wind from nearest: Dillingham;</t>
+      <c r="AB108" s="0" t="inlineStr"/>
+      <c r="AC108" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; elev.from Ak. Wilderness Milepost 1989, HDD, dbT, wind from nearest: Dillingham;</t>
         </is>
       </c>
     </row>
@@ -7408,7 +7565,8 @@
       <c r="T109" s="0">
         <v>7.42000007629395</v>
       </c>
-      <c r="AB109" s="0" t="inlineStr">
+      <c r="AB109" s="0" t="inlineStr"/>
+      <c r="AC109" s="0" t="inlineStr">
         <is>
           <t>Oct 2016 Weather and Location Data. Fuel prices from Village Council, 1/2018; elev. (at airstrip) from Ak. Wilderness Milepost 1989, weather from nearest: Dillingham;</t>
         </is>
@@ -7466,11 +7624,12 @@
         <v>0</v>
       </c>
       <c r="R110" s="0">
-        <v>4.5</v>
-      </c>
-      <c r="AB110" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; elev. (at airstrip) from Ak. Wilderness Milepost 1989, HDD, dbT, wind from nearest: Dillingham; no sales tax on fuel</t>
+        <v>5</v>
+      </c>
+      <c r="AB110" s="0" t="inlineStr"/>
+      <c r="AC110" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; elev. (at airstrip) from Ak. Wilderness Milepost 1989, HDD, dbT, wind from nearest: Dillingham; no sales tax on fuel</t>
         </is>
       </c>
     </row>
@@ -7531,9 +7690,10 @@
       <c r="T111" s="0">
         <v>11.0200004577637</v>
       </c>
-      <c r="AB111" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018;  HDD, dbT, wind from Dillingham;</t>
+      <c r="AB111" s="0" t="inlineStr"/>
+      <c r="AC111" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018;  HDD, dbT, wind from Dillingham;</t>
         </is>
       </c>
     </row>
@@ -7589,14 +7749,16 @@
         <v>0</v>
       </c>
       <c r="R112" s="0">
-        <v>5.15000009536743</v>
-      </c>
-      <c r="Z112" s="0">
+        <v>5.48000001907349</v>
+      </c>
+      <c r="Z112" s="0"/>
+      <c r="AA112" s="0">
         <v>1.99999995529652E-02</v>
       </c>
-      <c r="AB112" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, dbT, wind from Dillingham;</t>
+      <c r="AB112" s="0" t="inlineStr"/>
+      <c r="AC112" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; HDD, dbT, wind from Dillingham;</t>
         </is>
       </c>
     </row>
@@ -7657,9 +7819,10 @@
       <c r="T113" s="0">
         <v>10.5900001525879</v>
       </c>
-      <c r="AB113" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2017; weather from Dillingham</t>
+      <c r="AB113" s="0" t="inlineStr"/>
+      <c r="AC113" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; weather from Dillingham</t>
         </is>
       </c>
     </row>
@@ -7715,14 +7878,15 @@
         <v>0</v>
       </c>
       <c r="R114" s="0">
-        <v>2.78999996185303</v>
+        <v>2.76999998092651</v>
       </c>
       <c r="T114" s="0">
         <v>11.6499996185303</v>
       </c>
-      <c r="AB114" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; Weather info in Weather database - DO NOT ENTER HERE;</t>
+      <c r="AB114" s="0" t="inlineStr"/>
+      <c r="AC114" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; Weather info in Weather database - DO NOT ENTER HERE;</t>
         </is>
       </c>
     </row>
@@ -7781,14 +7945,15 @@
         <v>125</v>
       </c>
       <c r="R115" s="0">
-        <v>2.78999996185303</v>
+        <v>2.76999998092651</v>
       </c>
       <c r="T115" s="0">
         <v>11.6499996185303</v>
       </c>
-      <c r="AB115" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1948-55, wind m/s from WERA;</t>
+      <c r="AB115" s="0" t="inlineStr"/>
+      <c r="AC115" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1948-55, wind m/s from WERA;</t>
         </is>
       </c>
     </row>
@@ -7847,14 +8012,15 @@
         <v>125</v>
       </c>
       <c r="R116" s="0">
-        <v>2.78999996185303</v>
+        <v>2.76999998092651</v>
       </c>
       <c r="T116" s="0">
         <v>11.6499996185303</v>
       </c>
-      <c r="AB116" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; information from Naknek data</t>
+      <c r="AB116" s="0" t="inlineStr"/>
+      <c r="AC116" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; information from Naknek data</t>
         </is>
       </c>
     </row>
@@ -7912,7 +8078,8 @@
       <c r="R117" s="0">
         <v>3.91000008583069</v>
       </c>
-      <c r="AB117" s="0" t="inlineStr">
+      <c r="AB117" s="0" t="inlineStr"/>
+      <c r="AC117" s="0" t="inlineStr">
         <is>
           <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018;  HDD,dbT, wind from nearest: Chignik;</t>
         </is>
@@ -7970,11 +8137,12 @@
         <v>0</v>
       </c>
       <c r="R118" s="0">
-        <v>3.40000009536743</v>
-      </c>
-      <c r="AB118" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018;  HDD, Temp, Elev from AEIDC Climatological Summary, 1971-73;wind from WERA map class,  elev. (at airstrip) from Ak. Wilderness Milepost 1989;</t>
+        <v>3.70000004768372</v>
+      </c>
+      <c r="AB118" s="0" t="inlineStr"/>
+      <c r="AC118" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018;  HDD, Temp, Elev from AEIDC Climatological Summary, 1971-73;wind from WERA map class,  elev. (at airstrip) from Ak. Wilderness Milepost 1989;</t>
         </is>
       </c>
     </row>
@@ -8030,14 +8198,15 @@
         <v>0</v>
       </c>
       <c r="R119" s="0">
-        <v>6.75</v>
+        <v>7.55000019073486</v>
       </c>
       <c r="T119" s="0">
         <v>10.1700000762939</v>
       </c>
-      <c r="AB119" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; elev. (at airstrip) from Ak. Wilderness Milepost 1989, weather from nearest: Dillingham;</t>
+      <c r="AB119" s="0" t="inlineStr"/>
+      <c r="AC119" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; elev. (at airstrip) from Ak. Wilderness Milepost 1989, weather from nearest: Dillingham;</t>
         </is>
       </c>
     </row>
@@ -8098,7 +8267,8 @@
       <c r="T120" s="0">
         <v>6</v>
       </c>
-      <c r="AB120" s="0" t="inlineStr">
+      <c r="AB120" s="0" t="inlineStr"/>
+      <c r="AC120" s="0" t="inlineStr">
         <is>
           <t>Oct 2016 Weather and Location Data. fuel costs from 7/2017  flown in by Everts; HDD, Temp, Elev from AEIDC Climatological Summary, 1941-73;75-87, wind m/s from WERA;</t>
         </is>
@@ -8164,7 +8334,8 @@
       <c r="T121" s="0">
         <v>10.3000001907349</v>
       </c>
-      <c r="AB121" s="0" t="inlineStr">
+      <c r="AB121" s="0" t="inlineStr"/>
+      <c r="AC121" s="0" t="inlineStr">
         <is>
           <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1955-59;</t>
         </is>
@@ -8227,9 +8398,10 @@
       <c r="T122" s="0">
         <v>9.52999973297119</v>
       </c>
-      <c r="AB122" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018; elev. From Ak. Wilderness Milepost 1989, HDD, dbT, wind from Dillingham;</t>
+      <c r="AB122" s="0" t="inlineStr"/>
+      <c r="AC122" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018; elev. From Ak. Wilderness Milepost 1989, HDD, dbT, wind from Dillingham;</t>
         </is>
       </c>
     </row>
@@ -8291,17 +8463,20 @@
         <v>5.09999990463257</v>
       </c>
       <c r="T123" s="0">
-        <v>6.25</v>
-      </c>
-      <c r="Z123" s="0">
+        <v>6</v>
+      </c>
+      <c r="Z123" s="0"/>
+      <c r="AA123" s="0">
         <v>1.99999995529652E-02</v>
       </c>
-      <c r="AA123" s="0">
-        <v>2.99999993294477E-02</v>
-      </c>
       <c r="AB123" s="0" t="inlineStr">
         <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; elev.from Ak. Wilderness Milepost 1989, weather from closest: Iliamna</t>
+          <t>2.99999993294477E-02</t>
+        </is>
+      </c>
+      <c r="AC123" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; elev.from Ak. Wilderness Milepost 1989, weather from closest: Iliamna</t>
         </is>
       </c>
     </row>
@@ -8357,17 +8532,19 @@
         <v>0</v>
       </c>
       <c r="R124" s="0">
-        <v>5.30999994277954</v>
+        <v>5.42000007629395</v>
       </c>
       <c r="T124" s="0">
         <v>8.47000026702881</v>
       </c>
-      <c r="Z124" s="0">
+      <c r="Z124" s="0"/>
+      <c r="AA124" s="0">
         <v>2.99999993294477E-02</v>
       </c>
-      <c r="AB124" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; elev. From Ak. Wilderness Milepost 1989, weather from closest: Iliamna;</t>
+      <c r="AB124" s="0" t="inlineStr"/>
+      <c r="AC124" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; elev. From Ak. Wilderness Milepost 1989, weather from closest: Iliamna;</t>
         </is>
       </c>
     </row>
@@ -8423,14 +8600,15 @@
         <v>0</v>
       </c>
       <c r="R125" s="0">
-        <v>4.21000003814697</v>
+        <v>4.40000009536743</v>
       </c>
       <c r="T125" s="0">
         <v>6.67000007629395</v>
       </c>
-      <c r="AB125" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2017; weather from nearest: Iliamna;</t>
+      <c r="AB125" s="0" t="inlineStr"/>
+      <c r="AC125" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; weather from nearest: Iliamna;</t>
         </is>
       </c>
     </row>
@@ -8489,11 +8667,12 @@
         <v>3.39000010490417</v>
       </c>
       <c r="T126" s="0">
-        <v>14.4899997711182</v>
-      </c>
-      <c r="AB126" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; weather from Chignik;</t>
+        <v>7.88000011444092</v>
+      </c>
+      <c r="AB126" s="0" t="inlineStr"/>
+      <c r="AC126" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; weather from Chignik;</t>
         </is>
       </c>
     </row>
@@ -8554,12 +8733,14 @@
       <c r="T127" s="0">
         <v>4.23999977111816</v>
       </c>
-      <c r="Z127" s="0">
-        <v>0</v>
-      </c>
-      <c r="AB127" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018;Temp, Elev from AEIDC Climatological Summary, 1939-45; fuel prices from 6/2008 survey (Valerie Jefferies [valerieorloff@yahoo.com])</t>
+      <c r="Z127" s="0"/>
+      <c r="AA127" s="0">
+        <v>0</v>
+      </c>
+      <c r="AB127" s="0" t="inlineStr"/>
+      <c r="AC127" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018;Temp, Elev from AEIDC Climatological Summary, 1939-45; fuel prices from 6/2008 survey (Valerie Jefferies [valerieorloff@yahoo.com])</t>
         </is>
       </c>
     </row>
@@ -8614,7 +8795,8 @@
       <c r="P128" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="AB128" s="0" t="inlineStr">
+      <c r="AB128" s="0" t="inlineStr"/>
+      <c r="AC128" s="0" t="inlineStr">
         <is>
           <t>Oct 2016 Weather and Location Data. HDD, Temp, Elev from AEID CClimatological Summary, 1960-87, from WERA map class</t>
         </is>
@@ -8677,9 +8859,10 @@
       <c r="T129" s="0">
         <v>10.5900001525879</v>
       </c>
-      <c r="AB129" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1957-87;  design temp and wind from WERA</t>
+      <c r="AB129" s="0" t="inlineStr"/>
+      <c r="AC129" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1957-87;  design temp and wind from WERA</t>
         </is>
       </c>
     </row>
@@ -8737,9 +8920,13 @@
       <c r="R130" s="0">
         <v>5</v>
       </c>
-      <c r="AB130" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; elev. From Ak. Wilderness Milepost 1989, weather from Port Heiden</t>
+      <c r="T130" s="0">
+        <v>4.65999984741211</v>
+      </c>
+      <c r="AB130" s="0" t="inlineStr"/>
+      <c r="AC130" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; elev. From Ak. Wilderness Milepost 1989, weather from Port Heiden</t>
         </is>
       </c>
     </row>
@@ -8795,14 +8982,15 @@
         <v>0</v>
       </c>
       <c r="R131" s="0">
-        <v>4.69999980926514</v>
+        <v>3.16000008583069</v>
       </c>
       <c r="T131" s="0">
         <v>11.6796112060547</v>
       </c>
-      <c r="AB131" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. 3% sales tax not used for fuel; fuel costs from 7/17; elev.from Ak. Wilderness Milepost 1989, weather from nearest: Cold Bay;  NO SALES TAX ON FUEL</t>
+      <c r="AB131" s="0" t="inlineStr"/>
+      <c r="AC131" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. 3% sales tax not used for fuel; fuel costs from 7/18; elev.from Ak. Wilderness Milepost 1989, weather from nearest: Cold Bay;  NO SALES TAX ON FUEL</t>
         </is>
       </c>
     </row>
@@ -8858,12 +9046,14 @@
         <v>0</v>
       </c>
       <c r="R132" s="0">
-        <v>2.92000007629395</v>
-      </c>
-      <c r="Z132" s="0">
+        <v>3.46000003814697</v>
+      </c>
+      <c r="Z132" s="0"/>
+      <c r="AA132" s="0">
         <v>5.99999986588955E-02</v>
       </c>
-      <c r="AB132" s="0" t="inlineStr">
+      <c r="AB132" s="0" t="inlineStr"/>
+      <c r="AC132" s="0" t="inlineStr">
         <is>
           <t>Oct 2016 Weather and Location Data. fuel costs from 7/2017; elev. (at airstrip) from Ak. Wilderness Milepost 1989, weather from nearest: Cold Bay;</t>
         </is>
@@ -8921,14 +9111,13 @@
         <v>0</v>
       </c>
       <c r="R133" s="0">
-        <v>4.51000022888184</v>
-      </c>
-      <c r="T133" s="0">
-        <v>10.5900001525879</v>
-      </c>
-      <c r="AB133" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from ; elev. (at airstrip) from Ak. Wilderness Milepost 1989, HDD, dbT, wind from Sand Point;</t>
+        <v>4.98999977111816</v>
+      </c>
+      <c r="T133" s="0"/>
+      <c r="AB133" s="0" t="inlineStr"/>
+      <c r="AC133" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 8/2018 ; elev. (at airstrip) from Ak. Wilderness Milepost 1989, HDD, dbT, wind from Sand Point;</t>
         </is>
       </c>
     </row>
@@ -8984,17 +9173,19 @@
         <v>0</v>
       </c>
       <c r="R134" s="0">
-        <v>3.94000005722046</v>
+        <v>3.03999996185303</v>
       </c>
       <c r="T134" s="0">
-        <v>7.8899998664856</v>
-      </c>
-      <c r="Z134" s="0">
+        <v>8.46000003814697</v>
+      </c>
+      <c r="Z134" s="0"/>
+      <c r="AA134" s="0">
         <v>3.99999991059303E-02</v>
       </c>
-      <c r="AB134" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018 HDD, Temp, Elev from AEIDC Climatological Summary, 1980-87, wind nearest Cold Bay; oil from 11/03 survey and propane costs from ISER survey May 1993;</t>
+      <c r="AB134" s="0" t="inlineStr"/>
+      <c r="AC134" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018 HDD, Temp, Elev from AEIDC Climatological Summary, 1980-87, wind nearest Cold Bay; oil from 11/03 survey and propane costs from ISER survey May 1993;</t>
         </is>
       </c>
     </row>
@@ -9049,7 +9240,8 @@
       <c r="P135" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="AB135" s="0" t="inlineStr">
+      <c r="AB135" s="0" t="inlineStr"/>
+      <c r="AC135" s="0" t="inlineStr">
         <is>
           <t>Oct 2016 Weather and Location Data. Wind m/s from WERA, HDD and dT from BEES,elev. From Ak. Wilderness Milepost 1989,</t>
         </is>
@@ -9115,12 +9307,14 @@
       <c r="T136" s="0">
         <v>13.0900001525879</v>
       </c>
-      <c r="Z136" s="0">
+      <c r="Z136" s="0"/>
+      <c r="AA136" s="0">
         <v>2.99999993294477E-02</v>
       </c>
-      <c r="AB136" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1954-60, wind and dT from nearest: St. Paul;</t>
+      <c r="AB136" s="0" t="inlineStr"/>
+      <c r="AC136" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1954-60, wind and dT from nearest: St. Paul;</t>
         </is>
       </c>
     </row>
@@ -9176,14 +9370,16 @@
         <v>0</v>
       </c>
       <c r="R137" s="0">
-        <v>3.5</v>
-      </c>
-      <c r="Z137" s="0">
+        <v>3.65000009536743</v>
+      </c>
+      <c r="Z137" s="0"/>
+      <c r="AA137" s="0">
         <v>2.99999993294477E-02</v>
       </c>
-      <c r="AB137" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; Weather info in Weather database - DO NOT ENTER HERE;</t>
+      <c r="AB137" s="0" t="inlineStr"/>
+      <c r="AC137" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; Weather info in Weather database - DO NOT ENTER HERE;</t>
         </is>
       </c>
     </row>
@@ -9239,17 +9435,19 @@
         <v>0</v>
       </c>
       <c r="R138" s="0">
-        <v>3.19000005722046</v>
+        <v>3.22000002861023</v>
       </c>
       <c r="S138" s="0">
-        <v>3.08999991416931</v>
-      </c>
-      <c r="Z138" s="0">
+        <v>3</v>
+      </c>
+      <c r="Z138" s="0"/>
+      <c r="AA138" s="0">
         <v>2.99999993294477E-02</v>
       </c>
-      <c r="AB138" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1922-87Degree days, design temp from BEES Appendix, wind nearest Adak; oil and propane costs from Rural CAP Raven Americorp 3/2001</t>
+      <c r="AB138" s="0" t="inlineStr"/>
+      <c r="AC138" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1922-87Degree days, design temp from BEES Appendix, wind nearest Adak; oil and propane costs from Rural CAP Raven Americorp 3/2001</t>
         </is>
       </c>
     </row>
@@ -9310,9 +9508,10 @@
       <c r="T139" s="0">
         <v>9.52999973297119</v>
       </c>
-      <c r="AB139" s="0" t="inlineStr">
-        <is>
-          <t>Fuel costs from 1/2018; Elev. And weather city from Alaska Wilderness Milepost 1989, weather from nearest: Holy Cross, dT from Bethel, wind from nearest: Aniak;</t>
+      <c r="AB139" s="0" t="inlineStr"/>
+      <c r="AC139" s="0" t="inlineStr">
+        <is>
+          <t>Fuel costs from 7/2018; Elev. And weather city from Alaska Wilderness Milepost 1989, weather from nearest: Holy Cross, dT from Bethel, wind from nearest: Aniak;</t>
         </is>
       </c>
     </row>
@@ -9370,9 +9569,10 @@
       <c r="R140" s="0">
         <v>5.09999990463257</v>
       </c>
-      <c r="AB140" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018;  HDD, Temp, Elev from McGrath; fuel costs from Native Corporation, 11/95,</t>
+      <c r="AB140" s="0" t="inlineStr"/>
+      <c r="AC140" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018;  HDD, Temp, Elev from McGrath; fuel costs from Native Corporation, 11/95,</t>
         </is>
       </c>
     </row>
@@ -9433,9 +9633,10 @@
       <c r="T141" s="0">
         <v>10.1700000762939</v>
       </c>
-      <c r="AB141" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1915-76, wind nearest Aniak</t>
+      <c r="AB141" s="0" t="inlineStr"/>
+      <c r="AC141" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1915-76, wind nearest Aniak</t>
         </is>
       </c>
     </row>
@@ -9491,14 +9692,15 @@
         <v>0</v>
       </c>
       <c r="R142" s="0">
-        <v>6.5</v>
+        <v>8.68000030517578</v>
       </c>
       <c r="T142" s="0">
         <v>8.26000022888184</v>
       </c>
-      <c r="AB142" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018; Weather info in Weather database - DO NOT ENTER HERE;</t>
+      <c r="AB142" s="0" t="inlineStr"/>
+      <c r="AC142" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018; Weather info in Weather database - DO NOT ENTER HERE;</t>
         </is>
       </c>
     </row>
@@ -9556,9 +9758,10 @@
       <c r="R143" s="0">
         <v>8</v>
       </c>
-      <c r="AB143" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1970-76, wind nearest Mcgrath</t>
+      <c r="AB143" s="0" t="inlineStr"/>
+      <c r="AC143" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1970-76, wind nearest Mcgrath</t>
         </is>
       </c>
     </row>
@@ -9616,9 +9819,10 @@
       <c r="R144" s="0">
         <v>6</v>
       </c>
-      <c r="AB144" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD,dbT and wind from nearest: Holy Cross</t>
+      <c r="AB144" s="0" t="inlineStr"/>
+      <c r="AC144" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; HDD,dbT and wind from nearest: Holy Cross</t>
         </is>
       </c>
     </row>
@@ -9674,14 +9878,15 @@
         <v>0</v>
       </c>
       <c r="R145" s="0">
-        <v>3.41000008583069</v>
+        <v>4.15000009536743</v>
       </c>
       <c r="T145" s="0">
-        <v>3.44000005722046</v>
-      </c>
-      <c r="AB145" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. 1/15; all weather from nearest:McGrath (14 mi); Fuel survey 1/2018</t>
+        <v>4.09999990463257</v>
+      </c>
+      <c r="AB145" s="0" t="inlineStr"/>
+      <c r="AC145" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. 1/15; all weather from nearest:McGrath (14 mi); Fuel survey 7/2018</t>
         </is>
       </c>
     </row>
@@ -9737,11 +9942,15 @@
         <v>0</v>
       </c>
       <c r="R146" s="0">
-        <v>3.24000000953674</v>
-      </c>
-      <c r="AB146" s="0" t="inlineStr">
-        <is>
-          <t>fuel price from 7/2017 - Evert's Flying Service; dT from BEES,Elev.(at airstrip) from Alaska Wilderness Milepost 1989, HDD, dbT and wind from nearest: Bettles</t>
+        <v>4.5</v>
+      </c>
+      <c r="T146" s="0">
+        <v>11.9200000762939</v>
+      </c>
+      <c r="AB146" s="0" t="inlineStr"/>
+      <c r="AC146" s="0" t="inlineStr">
+        <is>
+          <t>fuel price from 7/2018 - Evert's Flying Service; dT from BEES,Elev.(at airstrip) from Alaska Wilderness Milepost 1989, HDD, dbT and wind from nearest: Bettles</t>
         </is>
       </c>
     </row>
@@ -9802,7 +10011,8 @@
       <c r="R147" s="0">
         <v>3.42000007629395</v>
       </c>
-      <c r="AB147" s="0" t="inlineStr">
+      <c r="AB147" s="0" t="inlineStr"/>
+      <c r="AC147" s="0" t="inlineStr">
         <is>
           <t>Oct 2016 Weather and Location Data. 7/2017 fuel  brought on Evert's DC6; weather from nearest: Ft. Yukon</t>
         </is>
@@ -9860,17 +10070,19 @@
         <v>0</v>
       </c>
       <c r="R148" s="0">
-        <v>5.59999990463257</v>
+        <v>6.55000019073486</v>
       </c>
       <c r="T148" s="0">
         <v>8.35000038146973</v>
       </c>
-      <c r="Z148" s="0">
+      <c r="Z148" s="0"/>
+      <c r="AA148" s="0">
         <v>2.99999993294477E-02</v>
       </c>
-      <c r="AB148" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018;  HDD, Temp, Elev from AEIDCClimatological Summary, 1922-87, wind m/s from WERA, dT from BEES;</t>
+      <c r="AB148" s="0" t="inlineStr"/>
+      <c r="AC148" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018;  HDD, Temp, Elev from AEIDCClimatological Summary, 1922-87, wind m/s from WERA, dT from BEES;</t>
         </is>
       </c>
     </row>
@@ -9931,9 +10143,10 @@
       <c r="T149" s="0">
         <v>12.710000038147</v>
       </c>
-      <c r="AB149" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018;  HDD, Temp, Elev from AEIDC Climatological Summary, 1962-66</t>
+      <c r="AB149" s="0" t="inlineStr"/>
+      <c r="AC149" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018;  HDD, Temp, Elev from AEIDC Climatological Summary, 1962-66</t>
         </is>
       </c>
     </row>
@@ -9989,14 +10202,15 @@
         <v>0</v>
       </c>
       <c r="R150" s="0">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="T150" s="0">
         <v>11.4399995803833</v>
       </c>
-      <c r="AB150" s="0" t="inlineStr">
-        <is>
-          <t>Weather and Location Data. fuel costs from 1/2018; weather from nearest: Allakaket, dT from Bettles;</t>
+      <c r="AB150" s="0" t="inlineStr"/>
+      <c r="AC150" s="0" t="inlineStr">
+        <is>
+          <t>Weather and Location Data. fuel costs from 7/2018; weather from nearest: Allakaket, dT from Bettles;</t>
         </is>
       </c>
     </row>
@@ -10049,7 +10263,10 @@
         <v>600</v>
       </c>
       <c r="P151" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Q151" s="0">
+        <v>14</v>
       </c>
       <c r="R151" s="0">
         <v>3.91000008583069</v>
@@ -10057,7 +10274,8 @@
       <c r="T151" s="0">
         <v>8.47000026702881</v>
       </c>
-      <c r="AB151" s="0" t="inlineStr">
+      <c r="AB151" s="0" t="inlineStr"/>
+      <c r="AC151" s="0" t="inlineStr">
         <is>
           <t>Oct 2016 Weather and Location Data. fuel costs from  1/2017; weather from nearest: Bettles</t>
         </is>
@@ -10115,17 +10333,17 @@
         <v>0</v>
       </c>
       <c r="R152" s="0">
-        <v>5.44999980926514</v>
-      </c>
-      <c r="T152" s="0">
-        <v>7.90000009536743</v>
-      </c>
-      <c r="Z152" s="0">
+        <v>5.55000019073486</v>
+      </c>
+      <c r="T152" s="0"/>
+      <c r="Z152" s="0"/>
+      <c r="AA152" s="0">
         <v>2.99999993294477E-02</v>
       </c>
-      <c r="AB152" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1949-87;</t>
+      <c r="AB152" s="0" t="inlineStr"/>
+      <c r="AC152" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1949-87;</t>
         </is>
       </c>
     </row>
@@ -10186,9 +10404,10 @@
       <c r="T153" s="0">
         <v>13.3500003814697</v>
       </c>
-      <c r="AB153" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1941-70;</t>
+      <c r="AB153" s="0" t="inlineStr"/>
+      <c r="AC153" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1941-70;</t>
         </is>
       </c>
     </row>
@@ -10249,9 +10468,10 @@
       <c r="T154" s="0">
         <v>8.89999961853027</v>
       </c>
-      <c r="AB154" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; weather from nearest: Hughes;</t>
+      <c r="AB154" s="0" t="inlineStr"/>
+      <c r="AC154" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; weather from nearest: Hughes;</t>
         </is>
       </c>
     </row>
@@ -10307,14 +10527,15 @@
         <v>0</v>
       </c>
       <c r="R155" s="0">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="T155" s="0">
         <v>8.47000026702881</v>
       </c>
-      <c r="AB155" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018; elev.from Ak. Wilderness Milepost 1989, weather from nearest: Nulato</t>
+      <c r="AB155" s="0" t="inlineStr"/>
+      <c r="AC155" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018; elev.from Ak. Wilderness Milepost 1989, weather from nearest: Nulato</t>
         </is>
       </c>
     </row>
@@ -10375,9 +10596,10 @@
       <c r="T156" s="0">
         <v>8.47000026702881</v>
       </c>
-      <c r="AB156" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; elev. From Ak. Wilderness Milepost 1989, dbT from Nulato;</t>
+      <c r="AB156" s="0" t="inlineStr"/>
+      <c r="AC156" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; elev. From Ak. Wilderness Milepost 1989, dbT from Nulato;</t>
         </is>
       </c>
     </row>
@@ -10432,7 +10654,8 @@
       <c r="P157" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="AB157" s="0" t="inlineStr">
+      <c r="AB157" s="0" t="inlineStr"/>
+      <c r="AC157" s="0" t="inlineStr">
         <is>
           <t>Oct 2016 Weather and Location Data. HDD, Temp, Elev from AEIDC Climatological Summary, 1967-69;75-87</t>
         </is>
@@ -10490,11 +10713,12 @@
         <v>0</v>
       </c>
       <c r="R158" s="0">
-        <v>4.09999990463257</v>
-      </c>
-      <c r="AB158" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1930-87, wind nearest Tanana;</t>
+        <v>4.40000009536743</v>
+      </c>
+      <c r="AB158" s="0" t="inlineStr"/>
+      <c r="AC158" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1930-87, wind nearest Tanana;</t>
         </is>
       </c>
     </row>
@@ -10550,14 +10774,15 @@
         <v>0</v>
       </c>
       <c r="R159" s="0">
-        <v>3.40000009536743</v>
+        <v>3.54999995231628</v>
       </c>
       <c r="T159" s="0">
         <v>5.40000009536743</v>
       </c>
-      <c r="AB159" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018 elev. From Ak. Wilderness Milepost 1989, HDD, dbT from Rampart</t>
+      <c r="AB159" s="0" t="inlineStr"/>
+      <c r="AC159" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018 elev. From Ak. Wilderness Milepost 1989, HDD, dbT from Rampart</t>
         </is>
       </c>
     </row>
@@ -10613,14 +10838,15 @@
         <v>0</v>
       </c>
       <c r="R160" s="0">
-        <v>4.25</v>
+        <v>4.80000019073486</v>
       </c>
       <c r="T160" s="0">
         <v>8.6899995803833</v>
       </c>
-      <c r="AB160" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; Temp, Elev from AEIDCClimatological Summary, 1922-24;31-44,</t>
+      <c r="AB160" s="0" t="inlineStr"/>
+      <c r="AC160" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; Temp, Elev from AEIDCClimatological Summary, 1922-24;31-44,</t>
         </is>
       </c>
     </row>
@@ -10678,9 +10904,10 @@
       <c r="R161" s="0">
         <v>5</v>
       </c>
-      <c r="AB161" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. Fuel costs fro 1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1963-70;75-78</t>
+      <c r="AB161" s="0" t="inlineStr"/>
+      <c r="AC161" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. Fuel costs fro 7/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1963-70;75-78</t>
         </is>
       </c>
     </row>
@@ -10736,14 +10963,15 @@
         <v>0</v>
       </c>
       <c r="R162" s="0">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="T162" s="0">
         <v>9.75</v>
       </c>
-      <c r="AB162" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; Temp, Elev from AEIDC Climatological Summary, 1922-42, HDD from McGrath;</t>
+      <c r="AB162" s="0" t="inlineStr"/>
+      <c r="AC162" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; Temp, Elev from AEIDC Climatological Summary, 1922-42, HDD from McGrath;</t>
         </is>
       </c>
     </row>
@@ -10798,7 +11026,8 @@
       <c r="P163" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="AB163" s="0" t="inlineStr">
+      <c r="AB163" s="0" t="inlineStr"/>
+      <c r="AC163" s="0" t="inlineStr">
         <is>
           <t>Oct 2016 Weather and Location Data. HDD, dbT from Rampart;</t>
         </is>
@@ -10859,11 +11088,12 @@
         <v>4.25</v>
       </c>
       <c r="T164" s="0">
-        <v>8</v>
-      </c>
-      <c r="AB164" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. SALES TAX DOES NOT ncl  fuel costs from 1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1922-87, wind m/s from WERA, dT from BEES</t>
+        <v>7.84000015258789</v>
+      </c>
+      <c r="AB164" s="0" t="inlineStr"/>
+      <c r="AC164" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. SALES TAX DOES NOT ncl  fuel costs from 7/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1922-87, wind m/s from WERA, dT from BEES</t>
         </is>
       </c>
     </row>
@@ -10918,7 +11148,8 @@
       <c r="P165" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="AB165" s="0" t="inlineStr">
+      <c r="AB165" s="0" t="inlineStr"/>
+      <c r="AC165" s="0" t="inlineStr">
         <is>
           <t>Oct 2016 Weather and Location Data. HDD from AEIDC Climatological Summary, 1936-52</t>
         </is>
@@ -10976,14 +11207,13 @@
         <v>0</v>
       </c>
       <c r="R166" s="0">
-        <v>3.45000004768372</v>
-      </c>
-      <c r="T166" s="0">
-        <v>3.5</v>
-      </c>
-      <c r="AB166" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1965-74;wind from WERA map class</t>
+        <v>3.70000004768372</v>
+      </c>
+      <c r="T166" s="0"/>
+      <c r="AB166" s="0" t="inlineStr"/>
+      <c r="AC166" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1965-74;wind from WERA map class</t>
         </is>
       </c>
     </row>
@@ -11044,9 +11274,10 @@
       <c r="T167" s="0">
         <v>5</v>
       </c>
-      <c r="AB167" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1972-87;</t>
+      <c r="AB167" s="0" t="inlineStr"/>
+      <c r="AC167" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1972-87;</t>
         </is>
       </c>
     </row>
@@ -11102,14 +11333,15 @@
         <v>0</v>
       </c>
       <c r="R168" s="0">
-        <v>2.75</v>
+        <v>3.48000001907349</v>
       </c>
       <c r="T168" s="0">
-        <v>4.09999990463257</v>
-      </c>
-      <c r="AB168" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018;  HDD, Temp, Elev from AEIDC Climatological Summary, 1976-87, wind from WERA map class;</t>
+        <v>4.84999990463257</v>
+      </c>
+      <c r="AB168" s="0" t="inlineStr"/>
+      <c r="AC168" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018;  HDD, Temp, Elev from AEIDC Climatological Summary, 1976-87, wind from WERA map class;</t>
         </is>
       </c>
     </row>
@@ -11165,14 +11397,15 @@
         <v>0</v>
       </c>
       <c r="R169" s="0">
-        <v>3.45000004768372</v>
+        <v>3.5</v>
       </c>
       <c r="T169" s="0">
-        <v>3.44000005722046</v>
-      </c>
-      <c r="AB169" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018 ; HDD, Temp, Elev from AEIDC Climatological Summary, 1949-87, wind m/s from WERA, dT from BEES</t>
+        <v>3.70000004768372</v>
+      </c>
+      <c r="AB169" s="0" t="inlineStr"/>
+      <c r="AC169" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018 ; HDD, Temp, Elev from AEIDC Climatological Summary, 1949-87, wind m/s from WERA, dT from BEES</t>
         </is>
       </c>
     </row>
@@ -11228,14 +11461,15 @@
         <v>0</v>
       </c>
       <c r="R170" s="0">
-        <v>3.45000004768372</v>
+        <v>3.5</v>
       </c>
       <c r="T170" s="0">
-        <v>3.5</v>
-      </c>
-      <c r="AB170" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1941-67, wind and dT from nearest :Tok</t>
+        <v>3.70000004768372</v>
+      </c>
+      <c r="AB170" s="0" t="inlineStr"/>
+      <c r="AC170" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1941-67, wind and dT from nearest :Tok</t>
         </is>
       </c>
     </row>
@@ -11291,14 +11525,15 @@
         <v>0</v>
       </c>
       <c r="R171" s="0">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T171" s="0">
-        <v>3.5</v>
-      </c>
-      <c r="AB171" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; weather and wind from nearest: Tok</t>
+        <v>3.70000004768372</v>
+      </c>
+      <c r="AB171" s="0" t="inlineStr"/>
+      <c r="AC171" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; weather and wind from nearest: Tok</t>
         </is>
       </c>
     </row>
@@ -11354,14 +11589,15 @@
         <v>0</v>
       </c>
       <c r="R172" s="0">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T172" s="0">
-        <v>2.83999991416931</v>
-      </c>
-      <c r="AB172" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1954-87Degree days, design temp from BEES, wind from WERA map class;</t>
+        <v>3.70000004768372</v>
+      </c>
+      <c r="AB172" s="0" t="inlineStr"/>
+      <c r="AC172" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1954-87Degree days, design temp from BEES, wind from WERA map class;</t>
         </is>
       </c>
     </row>
@@ -11425,12 +11661,14 @@
       <c r="T173" s="0">
         <v>3.5</v>
       </c>
-      <c r="Z173" s="0">
+      <c r="Z173" s="0"/>
+      <c r="AA173" s="0">
         <v>5.49999997019768E-02</v>
       </c>
-      <c r="AB173" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1973-87, wind m/s from WERA;</t>
+      <c r="AB173" s="0" t="inlineStr"/>
+      <c r="AC173" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1973-87, wind m/s from WERA;</t>
         </is>
       </c>
     </row>
@@ -11491,7 +11729,8 @@
       <c r="T174" s="0">
         <v>6.1399998664856</v>
       </c>
-      <c r="AB174" s="0" t="inlineStr">
+      <c r="AB174" s="0" t="inlineStr"/>
+      <c r="AC174" s="0" t="inlineStr">
         <is>
           <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1975-87</t>
         </is>
@@ -11549,18 +11788,20 @@
         <v>0</v>
       </c>
       <c r="R175" s="0">
-        <v>3.86999988555908</v>
+        <v>4.26000022888184</v>
       </c>
       <c r="S175" s="0">
-        <v>3.84999990463257</v>
+        <v>4.15999984741211</v>
       </c>
       <c r="T175" s="0">
-        <v>4.07000017166138</v>
-      </c>
-      <c r="Z175" s="0">
+        <v>4.46999979019165</v>
+      </c>
+      <c r="Z175" s="0"/>
+      <c r="AA175" s="0">
         <v>2.99999993294477E-02</v>
       </c>
-      <c r="AB175" s="0" t="inlineStr">
+      <c r="AB175" s="0" t="inlineStr"/>
+      <c r="AC175" s="0" t="inlineStr">
         <is>
           <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1977-87, wind m/s from WERA;</t>
         </is>
@@ -11618,14 +11859,16 @@
         <v>0</v>
       </c>
       <c r="R176" s="0">
-        <v>3.49000000953674</v>
-      </c>
-      <c r="Z176" s="0">
+        <v>3.90000009536743</v>
+      </c>
+      <c r="Z176" s="0"/>
+      <c r="AA176" s="0">
         <v>6.49999976158142E-02</v>
       </c>
-      <c r="AB176" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018; HDD,  Elev from AEIDC Climatological Summary, 1979-87, wind from WERA map class;</t>
+      <c r="AB176" s="0" t="inlineStr"/>
+      <c r="AC176" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018; HDD,  Elev from AEIDC Climatological Summary, 1979-87, wind from WERA map class;</t>
         </is>
       </c>
     </row>
@@ -11681,17 +11924,19 @@
         <v>0</v>
       </c>
       <c r="R177" s="0">
-        <v>3.50999999046326</v>
+        <v>4.01000022888184</v>
       </c>
       <c r="T177" s="0">
-        <v>4.75</v>
-      </c>
-      <c r="Z177" s="0">
+        <v>6.73999977111816</v>
+      </c>
+      <c r="Z177" s="0"/>
+      <c r="AA177" s="0">
         <v>3.99999991059303E-02</v>
       </c>
-      <c r="AB177" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, Temp, Elev from AEIDCClimatological Summary, 1967-87, wind from WERA map class; fuel costs from Pelican Distribtors, 11/95;</t>
+      <c r="AB177" s="0" t="inlineStr"/>
+      <c r="AC177" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; HDD, Temp, Elev from AEIDCClimatological Summary, 1967-87, wind from WERA map class; fuel costs from Pelican Distribtors, 11/95;</t>
         </is>
       </c>
     </row>
@@ -11747,23 +11992,26 @@
         <v>0</v>
       </c>
       <c r="R178" s="0">
-        <v>3.57999992370605</v>
+        <v>4.53999996185303</v>
       </c>
       <c r="S178" s="0">
-        <v>3.67000007629395</v>
+        <v>4.51999998092651</v>
       </c>
       <c r="T178" s="0">
         <v>5.44999980926514</v>
       </c>
-      <c r="Z178" s="0">
-        <v>0</v>
-      </c>
+      <c r="Z178" s="0"/>
       <c r="AA178" s="0">
-        <v>5.00000007450581E-02</v>
+        <v>0</v>
       </c>
       <c r="AB178" s="0" t="inlineStr">
         <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; Weather from NOAA LCD Summary 1990; design temp from Western Sun; fuel prices from Delta Western, 11/03  survey; AVEC took over electricity June 2017</t>
+          <t>5.00000007450581E-02</t>
+        </is>
+      </c>
+      <c r="AC178" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; Weather from NOAA LCD Summary 1990; design temp from Western Sun; fuel prices from Delta Western, 11/03  survey; AVEC took over electricity June 2017</t>
         </is>
       </c>
     </row>
@@ -11822,14 +12070,17 @@
         <v>3.25</v>
       </c>
       <c r="S179" s="0">
-        <v>3.15000009536743</v>
-      </c>
-      <c r="AA179" s="0">
-        <v>5.49999997019768E-02</v>
-      </c>
+        <v>3.23000001907349</v>
+      </c>
+      <c r="AA179" s="0"/>
       <c r="AB179" s="0" t="inlineStr">
         <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; for Haines; wind from WERA map class, HDD and dbT from BEES</t>
+          <t>5.49999997019768E-02</t>
+        </is>
+      </c>
+      <c r="AC179" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; for Haines; wind from WERA map class, HDD and dbT from BEES</t>
         </is>
       </c>
     </row>
@@ -11885,20 +12136,22 @@
         <v>0</v>
       </c>
       <c r="R180" s="0">
-        <v>3.14000010490417</v>
+        <v>3.5</v>
       </c>
       <c r="S180" s="0">
-        <v>3.03999996185303</v>
+        <v>3.48000001907349</v>
       </c>
       <c r="T180" s="0">
         <v>4</v>
       </c>
-      <c r="Z180" s="0">
+      <c r="Z180" s="0"/>
+      <c r="AA180" s="0">
         <v>2.99999993294477E-02</v>
       </c>
-      <c r="AB180" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 65-72;1982-87, wind from WERA map class;</t>
+      <c r="AB180" s="0" t="inlineStr"/>
+      <c r="AC180" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 65-72;1982-87, wind from WERA map class;</t>
         </is>
       </c>
     </row>
@@ -11962,10 +12215,12 @@
       <c r="T181" s="0">
         <v>3.61999988555908</v>
       </c>
-      <c r="Z181" s="0">
+      <c r="Z181" s="0"/>
+      <c r="AA181" s="0">
         <v>1.99999995529652E-02</v>
       </c>
-      <c r="AB181" s="0" t="inlineStr">
+      <c r="AB181" s="0" t="inlineStr"/>
+      <c r="AC181" s="0" t="inlineStr">
         <is>
           <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1969-83wind from WERA map class;</t>
         </is>
@@ -12026,20 +12281,22 @@
         <v>292</v>
       </c>
       <c r="R182" s="0">
-        <v>2.96000003814697</v>
+        <v>3.1800000667572</v>
       </c>
       <c r="S182" s="0">
-        <v>2.91000008583069</v>
+        <v>3.15000009536743</v>
       </c>
       <c r="T182" s="0">
-        <v>3</v>
-      </c>
-      <c r="Z182" s="0">
+        <v>3.95000004768372</v>
+      </c>
+      <c r="Z182" s="0"/>
+      <c r="AA182" s="0">
         <v>5.00000007450581E-02</v>
       </c>
-      <c r="AB182" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018; Weather info in Weather database - DO NOT ENTER HERE;</t>
+      <c r="AB182" s="0" t="inlineStr"/>
+      <c r="AC182" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018; Weather info in Weather database - DO NOT ENTER HERE;</t>
         </is>
       </c>
     </row>
@@ -12095,17 +12352,19 @@
         <v>0</v>
       </c>
       <c r="R183" s="0">
-        <v>2.72000002861023</v>
+        <v>2.99000000953674</v>
       </c>
       <c r="S183" s="0">
-        <v>2.71000003814697</v>
-      </c>
-      <c r="Z183" s="0">
+        <v>2.97000002861023</v>
+      </c>
+      <c r="Z183" s="0"/>
+      <c r="AA183" s="0">
         <v>5.00000007450581E-02</v>
       </c>
-      <c r="AB183" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018  HDD, Temp, Elev from AEIDC Climatological Summary, 1922-87, wind m/s from WERA; oil and propane costs from average of survey, 11/01 phone survey; spruce from RHD survey, 8//94; no birch available</t>
+      <c r="AB183" s="0" t="inlineStr"/>
+      <c r="AC183" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018  HDD, Temp, Elev from AEIDC Climatological Summary, 1922-87, wind m/s from WERA; oil and propane costs from average of survey, 11/01 phone survey; spruce from RHD survey, 8//94; no birch available</t>
         </is>
       </c>
     </row>
@@ -12161,20 +12420,23 @@
         <v>0</v>
       </c>
       <c r="R184" s="0">
-        <v>2.98000001907349</v>
+        <v>2.75999999046326</v>
       </c>
       <c r="S184" s="0">
-        <v>3.19000005722046</v>
-      </c>
-      <c r="Z184" s="0">
-        <v>0</v>
-      </c>
+        <v>2.74000000953674</v>
+      </c>
+      <c r="Z184" s="0"/>
       <c r="AA184" s="0">
-        <v>7.00000002980232E-02</v>
+        <v>0</v>
       </c>
       <c r="AB184" s="0" t="inlineStr">
         <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018;  HDD, Temp, Elev from AEIDC Climatological Summary, 1922-87;</t>
+          <t>7.00000002980232E-02</t>
+        </is>
+      </c>
+      <c r="AC184" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018;  HDD, Temp, Elev from AEIDC Climatological Summary, 1922-87;</t>
         </is>
       </c>
     </row>
@@ -12230,17 +12492,19 @@
         <v>0</v>
       </c>
       <c r="R185" s="0">
-        <v>3.84999990463257</v>
+        <v>4.11999988555908</v>
       </c>
       <c r="T185" s="0">
         <v>3.99000000953674</v>
       </c>
-      <c r="Z185" s="0">
+      <c r="Z185" s="0"/>
+      <c r="AA185" s="0">
         <v>5.00000007450581E-02</v>
       </c>
-      <c r="AB185" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018; HDD, Temp, Elev from AEIDC Climatological Summary,1922-36; 1972-87, wind from WERA map class; oil rates from Kake Tribal Fuel (785-6427) Propane from Arrowhead LP Gas (785-3156)</t>
+      <c r="AB185" s="0" t="inlineStr"/>
+      <c r="AC185" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018; HDD, Temp, Elev from AEIDC Climatological Summary,1922-36; 1972-87, wind from WERA map class; oil rates from Kake Tribal Fuel (785-6427) Propane from Arrowhead LP Gas (785-3156)</t>
         </is>
       </c>
     </row>
@@ -12296,14 +12560,19 @@
         <v>0</v>
       </c>
       <c r="R186" s="0">
-        <v>2.98000001907349</v>
-      </c>
-      <c r="Z186" s="0">
+        <v>3.40000009536743</v>
+      </c>
+      <c r="T186" s="0">
+        <v>2.92000007629395</v>
+      </c>
+      <c r="Z186" s="0"/>
+      <c r="AA186" s="0">
         <v>5.99999986588955E-02</v>
       </c>
-      <c r="AB186" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1937-83,83-87 avg, wind m/s from WERA; oil from Petro Marine 11/01 phone survey</t>
+      <c r="AB186" s="0" t="inlineStr"/>
+      <c r="AC186" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1937-83,83-87 avg, wind m/s from WERA; oil from Petro Marine 11/01 phone survey</t>
         </is>
       </c>
     </row>
@@ -12359,17 +12628,19 @@
         <v>0</v>
       </c>
       <c r="R187" s="0">
-        <v>3.49038481712341</v>
+        <v>3.25</v>
       </c>
       <c r="S187" s="0">
-        <v>3.39423084259033</v>
-      </c>
-      <c r="Z187" s="0">
+        <v>3.23000001907349</v>
+      </c>
+      <c r="Z187" s="0"/>
+      <c r="AA187" s="0">
         <v>3.99999991059303E-02</v>
       </c>
-      <c r="AB187" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 7/15 City says their prices are Sitka prices plus $.30 in summer and $.50 in winter; propane is $25 freight per 100 lb tank from Sitka;  HDD, Temp, Elev from AEIDC Climatological Summary, 1949-63,78-87 1</t>
+      <c r="AB187" s="0" t="inlineStr"/>
+      <c r="AC187" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/18 City says their prices are Sitka prices plus $.30 in summer and $.50 in winter; propane is $25 freight per 100 lb tank from Sitka;  HDD, Temp, Elev from AEIDC Climatological Summary, 1949-63,78-87 1</t>
         </is>
       </c>
     </row>
@@ -12425,23 +12696,26 @@
         <v>0</v>
       </c>
       <c r="R188" s="0">
-        <v>3.01999998092651</v>
+        <v>3.38000011444092</v>
       </c>
       <c r="S188" s="0">
-        <v>2.92000007629395</v>
+        <v>2.35999989509583</v>
       </c>
       <c r="T188" s="0">
-        <v>3.07999992370605</v>
-      </c>
-      <c r="Z188" s="0">
+        <v>3.74000000953674</v>
+      </c>
+      <c r="Z188" s="0"/>
+      <c r="AA188" s="0">
         <v>3.50000001490116E-02</v>
       </c>
-      <c r="AA188" s="0">
-        <v>0.025000000372529</v>
-      </c>
       <c r="AB188" s="0" t="inlineStr">
         <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018; Weather info in Weather database - DO NOT ENTER HERE; design temp from Annette;</t>
+          <t>0.025000000372529</t>
+        </is>
+      </c>
+      <c r="AC188" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018; Weather info in Weather database - DO NOT ENTER HERE; design temp from Annette;</t>
         </is>
       </c>
     </row>
@@ -12500,23 +12774,26 @@
         <v>207</v>
       </c>
       <c r="R189" s="0">
-        <v>3.01999998092651</v>
+        <v>3.38000011444092</v>
       </c>
       <c r="S189" s="0">
-        <v>2.92000007629395</v>
+        <v>3.35999989509583</v>
       </c>
       <c r="T189" s="0">
-        <v>3.07999992370605</v>
-      </c>
-      <c r="Z189" s="0">
+        <v>3.74000000953674</v>
+      </c>
+      <c r="Z189" s="0"/>
+      <c r="AA189" s="0">
         <v>3.99999991059303E-02</v>
       </c>
-      <c r="AA189" s="0">
-        <v>0.025000000372529</v>
-      </c>
       <c r="AB189" s="0" t="inlineStr">
         <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, dbtT from nearest:Ketchikan; fuel prices from Ketchikan</t>
+          <t>0.025000000372529</t>
+        </is>
+      </c>
+      <c r="AC189" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; HDD, dbtT from nearest:Ketchikan; fuel prices from Ketchikan</t>
         </is>
       </c>
     </row>
@@ -12575,23 +12852,26 @@
         <v>207</v>
       </c>
       <c r="R190" s="0">
-        <v>3.01999998092651</v>
+        <v>3.38000011444092</v>
       </c>
       <c r="S190" s="0">
-        <v>2.92000007629395</v>
+        <v>3.35999989509583</v>
       </c>
       <c r="T190" s="0">
-        <v>3.07999992370605</v>
-      </c>
-      <c r="Z190" s="0">
+        <v>3.74000000953674</v>
+      </c>
+      <c r="Z190" s="0"/>
+      <c r="AA190" s="0">
         <v>3.50000001490116E-02</v>
       </c>
-      <c r="AA190" s="0">
-        <v>0.025000000372529</v>
-      </c>
       <c r="AB190" s="0" t="inlineStr">
         <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, dbT, wind from nearest: Ketchikan</t>
+          <t>0.025000000372529</t>
+        </is>
+      </c>
+      <c r="AC190" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; HDD, dbT, wind from nearest: Ketchikan</t>
         </is>
       </c>
     </row>
@@ -12650,17 +12930,16 @@
         <v>207</v>
       </c>
       <c r="R191" s="0">
-        <v>3</v>
-      </c>
-      <c r="S191" s="0">
-        <v>2.90000009536743</v>
-      </c>
+        <v>3.5</v>
+      </c>
+      <c r="S191" s="0"/>
       <c r="T191" s="0">
-        <v>4.44999980926514</v>
-      </c>
-      <c r="AB191" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; wind m/s from WERA</t>
+        <v>4.5</v>
+      </c>
+      <c r="AB191" s="0" t="inlineStr"/>
+      <c r="AC191" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; wind m/s from WERA</t>
         </is>
       </c>
     </row>
@@ -12715,7 +12994,8 @@
       <c r="P192" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="AB192" s="0" t="inlineStr">
+      <c r="AB192" s="0" t="inlineStr"/>
+      <c r="AC192" s="0" t="inlineStr">
         <is>
           <t>Oct 2016 Weather and Location Data. weather from nearest: Ketchikan</t>
         </is>
@@ -12773,14 +13053,15 @@
         <v>0</v>
       </c>
       <c r="R193" s="0">
-        <v>3.14000010490417</v>
+        <v>3.5</v>
       </c>
       <c r="T193" s="0">
         <v>2.83999991416931</v>
       </c>
-      <c r="AB193" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018 survey; HDD, Temp, Elev from AEIDC Climatological Summary, 1949-50,52-64,87, wind from WERA map class;</t>
+      <c r="AB193" s="0" t="inlineStr"/>
+      <c r="AC193" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018 survey; HDD, Temp, Elev from AEIDC Climatological Summary, 1949-50,52-64,87, wind from WERA map class;</t>
         </is>
       </c>
     </row>
@@ -12836,20 +13117,22 @@
         <v>0</v>
       </c>
       <c r="R194" s="0">
-        <v>3.03999996185303</v>
+        <v>3.40000009536743</v>
       </c>
       <c r="S194" s="0">
-        <v>3.03999996185303</v>
+        <v>3.34999990463257</v>
       </c>
       <c r="T194" s="0">
-        <v>2.92000007629395</v>
-      </c>
-      <c r="Z194" s="0">
+        <v>2.69000005722046</v>
+      </c>
+      <c r="Z194" s="0"/>
+      <c r="AA194" s="0">
         <v>5.00000007450581E-02</v>
       </c>
-      <c r="AB194" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1936-53; wind from WERA map class;</t>
+      <c r="AB194" s="0" t="inlineStr"/>
+      <c r="AC194" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1936-53; wind from WERA map class;</t>
         </is>
       </c>
     </row>
@@ -12905,17 +13188,19 @@
         <v>0</v>
       </c>
       <c r="R195" s="0">
-        <v>3.14000010490417</v>
+        <v>3.5</v>
       </c>
       <c r="T195" s="0">
         <v>2.83999991416931</v>
       </c>
-      <c r="Z195" s="0">
+      <c r="Z195" s="0"/>
+      <c r="AA195" s="0">
         <v>5.99999986588955E-02</v>
       </c>
-      <c r="AB195" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018 survey; Temp, Elev from AEIDCClimatological Summary, 1923-32, wind from WERA map class;</t>
+      <c r="AB195" s="0" t="inlineStr"/>
+      <c r="AC195" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018 survey; Temp, Elev from AEIDCClimatological Summary, 1923-32, wind from WERA map class;</t>
         </is>
       </c>
     </row>
@@ -12971,17 +13256,18 @@
         <v>0</v>
       </c>
       <c r="R196" s="0">
-        <v>3.14000010490417</v>
+        <v>3.5</v>
       </c>
       <c r="S196" s="0">
-        <v>3.03999996185303</v>
+        <v>3.48000001907349</v>
       </c>
       <c r="T196" s="0">
-        <v>2.74000000953674</v>
-      </c>
-      <c r="AB196" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018 survey; weather from nearest: Hollis</t>
+        <v>2.94000005722046</v>
+      </c>
+      <c r="AB196" s="0" t="inlineStr"/>
+      <c r="AC196" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018 survey; weather from nearest: Hollis</t>
         </is>
       </c>
     </row>
@@ -13037,20 +13323,22 @@
         <v>0</v>
       </c>
       <c r="R197" s="0">
-        <v>3.03999996185303</v>
+        <v>3.40000009536743</v>
       </c>
       <c r="S197" s="0">
-        <v>2.94000005722046</v>
+        <v>2.38000011444092</v>
       </c>
       <c r="T197" s="0">
         <v>2.69000005722046</v>
       </c>
-      <c r="Z197" s="0">
+      <c r="Z197" s="0"/>
+      <c r="AA197" s="0">
         <v>5.49999997019768E-02</v>
       </c>
-      <c r="AB197" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018 survey; Temp, Elev from AEIDC Climatological Summary, 1908-87, wind from WERA map class,</t>
+      <c r="AB197" s="0" t="inlineStr"/>
+      <c r="AC197" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018 survey; Temp, Elev from AEIDC Climatological Summary, 1908-87, wind from WERA map class,</t>
         </is>
       </c>
     </row>
@@ -13106,17 +13394,16 @@
         <v>0</v>
       </c>
       <c r="R198" s="0">
-        <v>4.84999990463257</v>
+        <v>4.67000007629395</v>
       </c>
       <c r="S198" s="0">
-        <v>4.80000019073486</v>
-      </c>
-      <c r="T198" s="0">
         <v>4.65000009536743</v>
       </c>
-      <c r="AB198" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; dbT from Port Protection (2 mi);</t>
+      <c r="T198" s="0"/>
+      <c r="AB198" s="0" t="inlineStr"/>
+      <c r="AC198" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; dbT from Port Protection (2 mi);</t>
         </is>
       </c>
     </row>
@@ -13177,7 +13464,8 @@
       <c r="T199" s="0">
         <v>4.59999990463257</v>
       </c>
-      <c r="AB199" s="0" t="inlineStr">
+      <c r="AB199" s="0" t="inlineStr"/>
+      <c r="AC199" s="0" t="inlineStr">
         <is>
           <t>Oct 2016 Weather and Location Data. 2 mi from Point Baker on NW Prince of Wales Is.,HDD, Temp, Elev from AEIDC Climatological Summary, 1983-87; fuel prices from Point Baker 7/2016</t>
         </is>
@@ -13235,20 +13523,22 @@
         <v>0</v>
       </c>
       <c r="R200" s="0">
-        <v>2.98000001907349</v>
+        <v>3.4300000667572</v>
       </c>
       <c r="S200" s="0">
-        <v>2.88000011444092</v>
+        <v>3.41000008583069</v>
       </c>
       <c r="T200" s="0">
         <v>2.83999991416931</v>
       </c>
-      <c r="Z200" s="0">
+      <c r="Z200" s="0"/>
+      <c r="AA200" s="0">
         <v>5.99999986588955E-02</v>
       </c>
-      <c r="AB200" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018;  HDD, dbT, wind from Hollis; oil and propane prices from fuel suppliers: 3/98</t>
+      <c r="AB200" s="0" t="inlineStr"/>
+      <c r="AC200" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018;  HDD, dbT, wind from Hollis; oil and propane prices from fuel suppliers: 3/98</t>
         </is>
       </c>
     </row>
@@ -13304,11 +13594,15 @@
         <v>0</v>
       </c>
       <c r="R201" s="0">
-        <v>2.75</v>
-      </c>
-      <c r="AB201" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018;  HDD, dbT from nearest: Gakona;</t>
+        <v>3.10999989509583</v>
+      </c>
+      <c r="T201" s="0">
+        <v>3.50999999046326</v>
+      </c>
+      <c r="AB201" s="0" t="inlineStr"/>
+      <c r="AC201" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018;  HDD, dbT from nearest: Gakona;</t>
         </is>
       </c>
     </row>
@@ -13364,14 +13658,15 @@
         <v>0</v>
       </c>
       <c r="R202" s="0">
-        <v>2.75</v>
+        <v>3.00999999046326</v>
       </c>
       <c r="T202" s="0">
-        <v>3.44000005722046</v>
-      </c>
-      <c r="AB202" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018 survey</t>
+        <v>3.50999999046326</v>
+      </c>
+      <c r="AB202" s="0" t="inlineStr"/>
+      <c r="AC202" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018 survey</t>
         </is>
       </c>
     </row>
@@ -13427,14 +13722,15 @@
         <v>0</v>
       </c>
       <c r="R203" s="0">
-        <v>2.75</v>
+        <v>3.11999988555908</v>
       </c>
       <c r="T203" s="0">
-        <v>3.60999989509583</v>
-      </c>
-      <c r="AB203" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1965-87, wind nearest Gulkana; oil and propane from Fisher Fuel in 11/01 phone survey</t>
+        <v>3.50999999046326</v>
+      </c>
+      <c r="AB203" s="0" t="inlineStr"/>
+      <c r="AC203" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1965-87, wind nearest Gulkana; oil and propane from Fisher Fuel in 11/01 phone survey</t>
         </is>
       </c>
     </row>
@@ -13490,14 +13786,15 @@
         <v>0</v>
       </c>
       <c r="R204" s="0">
-        <v>2.75</v>
+        <v>3.00999999046326</v>
       </c>
       <c r="T204" s="0">
-        <v>3.44000005722046</v>
-      </c>
-      <c r="AB204" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018; Weather info in Weather database - DO NOT ENTER HERE;</t>
+        <v>3.50999999046326</v>
+      </c>
+      <c r="AB204" s="0" t="inlineStr"/>
+      <c r="AC204" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018; Weather info in Weather database - DO NOT ENTER HERE;</t>
         </is>
       </c>
     </row>
@@ -13553,14 +13850,15 @@
         <v>0</v>
       </c>
       <c r="R205" s="0">
-        <v>2.75</v>
+        <v>3.00999999046326</v>
       </c>
       <c r="T205" s="0">
-        <v>3.44000005722046</v>
-      </c>
-      <c r="AB205" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1961-69;</t>
+        <v>3.50999999046326</v>
+      </c>
+      <c r="AB205" s="0" t="inlineStr"/>
+      <c r="AC205" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1961-69;</t>
         </is>
       </c>
     </row>
@@ -13616,14 +13914,15 @@
         <v>0</v>
       </c>
       <c r="R206" s="0">
-        <v>2.86999988555908</v>
+        <v>3.41000008583069</v>
       </c>
       <c r="T206" s="0">
-        <v>4.03999996185303</v>
-      </c>
-      <c r="AB206" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2017; HDD, Temp, Elev from AEIDC Climatological Summary, 1968-76,76-83,83-87 averaged, wind from WERA map class</t>
+        <v>4.1100001335144</v>
+      </c>
+      <c r="AB206" s="0" t="inlineStr"/>
+      <c r="AC206" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1968-76,76-83,83-87 averaged, wind from WERA map class</t>
         </is>
       </c>
     </row>
@@ -13679,14 +13978,15 @@
         <v>0</v>
       </c>
       <c r="R207" s="0">
-        <v>2.84999990463257</v>
+        <v>3.84999990463257</v>
       </c>
       <c r="T207" s="0">
-        <v>3.47000002861023</v>
-      </c>
-      <c r="AB207" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; 38 miles SW of Tok, weather from Tok;</t>
+        <v>4.1100001335144</v>
+      </c>
+      <c r="AB207" s="0" t="inlineStr"/>
+      <c r="AC207" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; 38 miles SW of Tok, weather from Tok;</t>
         </is>
       </c>
     </row>
@@ -13747,7 +14047,8 @@
       <c r="T208" s="0">
         <v>4.03999996185303</v>
       </c>
-      <c r="AB208" s="0" t="inlineStr">
+      <c r="AB208" s="0" t="inlineStr"/>
+      <c r="AC208" s="0" t="inlineStr">
         <is>
           <t>Oct 2016 Weather and Location Data. HDD, Temp, Elev from AEIDC Climatological Summary, 1975-87, wind from WERA map class; fuel prices from 1/2018</t>
         </is>
@@ -13805,14 +14106,15 @@
         <v>0</v>
       </c>
       <c r="R209" s="0">
-        <v>2.75</v>
+        <v>3.10999989509583</v>
       </c>
       <c r="T209" s="0">
-        <v>3.44000005722046</v>
-      </c>
-      <c r="AB209" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1957-75,78-87</t>
+        <v>3.50999999046326</v>
+      </c>
+      <c r="AB209" s="0" t="inlineStr"/>
+      <c r="AC209" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1957-75,78-87</t>
         </is>
       </c>
     </row>
@@ -13868,14 +14170,15 @@
         <v>0</v>
       </c>
       <c r="R210" s="0">
-        <v>2.75</v>
+        <v>3.00999999046326</v>
       </c>
       <c r="T210" s="0">
-        <v>3.44000005722046</v>
-      </c>
-      <c r="AB210" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, dbT, wind from Glenallen</t>
+        <v>3.50999999046326</v>
+      </c>
+      <c r="AB210" s="0" t="inlineStr"/>
+      <c r="AC210" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; HDD, dbT, wind from Glenallen</t>
         </is>
       </c>
     </row>
@@ -13931,14 +14234,15 @@
         <v>0</v>
       </c>
       <c r="R211" s="0">
-        <v>2.75</v>
+        <v>3.00999999046326</v>
       </c>
       <c r="T211" s="0">
-        <v>3.44000005722046</v>
-      </c>
-      <c r="AB211" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1963-87</t>
+        <v>3.50999999046326</v>
+      </c>
+      <c r="AB211" s="0" t="inlineStr"/>
+      <c r="AC211" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1963-87</t>
         </is>
       </c>
     </row>
@@ -14002,7 +14306,8 @@
       <c r="T212" s="0">
         <v>3.99000000953674</v>
       </c>
-      <c r="AB212" s="0" t="inlineStr">
+      <c r="AB212" s="0" t="inlineStr"/>
+      <c r="AC212" s="0" t="inlineStr">
         <is>
           <t>Oct 2016 Weather and Location Data. weather from nearest: Valdez</t>
         </is>
@@ -14063,11 +14368,12 @@
         <v>286</v>
       </c>
       <c r="R213" s="0">
-        <v>5.94000005722046</v>
-      </c>
-      <c r="AB213" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018; HDD,dbT, dT from Seward, Wind from Cordova</t>
+        <v>5.90000009536743</v>
+      </c>
+      <c r="AB213" s="0" t="inlineStr"/>
+      <c r="AC213" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018; HDD,dbT, dT from Seward, Wind from Cordova</t>
         </is>
       </c>
     </row>
@@ -14122,7 +14428,8 @@
       <c r="P214" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="AB214" s="0" t="inlineStr">
+      <c r="AB214" s="0" t="inlineStr"/>
+      <c r="AC214" s="0" t="inlineStr">
         <is>
           <t>Oct 2016 Weather and Location Data. weather data from nearest: Valdez,elev. (at airstrip) from Ak. Wilderness Milepost 1989</t>
         </is>
@@ -14180,14 +14487,15 @@
         <v>0</v>
       </c>
       <c r="R215" s="0">
-        <v>3.04999995231628</v>
+        <v>3.38000011444092</v>
       </c>
       <c r="T215" s="0">
-        <v>3.75</v>
-      </c>
-      <c r="AB215" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018;  HDD, Temp, Elev from NOAA 1990 Comparative Summary;</t>
+        <v>4</v>
+      </c>
+      <c r="AB215" s="0" t="inlineStr"/>
+      <c r="AC215" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018;  HDD, Temp, Elev from NOAA 1990 Comparative Summary;</t>
         </is>
       </c>
     </row>
@@ -14240,15 +14548,20 @@
         <v>0</v>
       </c>
       <c r="P216" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Q216" s="0">
+        <v>1</v>
       </c>
       <c r="R216" s="0">
         <v>2.75</v>
       </c>
-      <c r="Z216" s="0">
+      <c r="Z216" s="0"/>
+      <c r="AA216" s="0">
         <v>5.00000007450581E-02</v>
       </c>
-      <c r="AB216" s="0" t="inlineStr">
+      <c r="AB216" s="0" t="inlineStr"/>
+      <c r="AC216" s="0" t="inlineStr">
         <is>
           <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1942-73,82-87;</t>
         </is>
@@ -14306,11 +14619,12 @@
         <v>0</v>
       </c>
       <c r="R217" s="0">
-        <v>4.94000005722046</v>
-      </c>
-      <c r="AB217" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; weather from nearest: Seldovia</t>
+        <v>5.19999980926514</v>
+      </c>
+      <c r="AB217" s="0" t="inlineStr"/>
+      <c r="AC217" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; weather from nearest: Seldovia</t>
         </is>
       </c>
     </row>
@@ -14368,12 +14682,15 @@
       <c r="R218" s="0">
         <v>3.07999992370605</v>
       </c>
-      <c r="AA218" s="0">
-        <v>2.99999993294477E-02</v>
-      </c>
+      <c r="AA218" s="0"/>
       <c r="AB218" s="0" t="inlineStr">
         <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, dbT, and wind from nearest: Seldovia, elev. (at airstrip) from Ak. Wilderness Milepost 1989,</t>
+          <t>2.99999993294477E-02</t>
+        </is>
+      </c>
+      <c r="AC218" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; HDD, dbT, and wind from nearest: Seldovia, elev. (at airstrip) from Ak. Wilderness Milepost 1989,</t>
         </is>
       </c>
     </row>
@@ -14429,20 +14746,23 @@
         <v>0</v>
       </c>
       <c r="R219" s="0">
-        <v>2.69000005722046</v>
+        <v>3</v>
       </c>
       <c r="T219" s="0">
-        <v>4.09999990463257</v>
-      </c>
-      <c r="Z219" s="0">
+        <v>4</v>
+      </c>
+      <c r="Z219" s="0"/>
+      <c r="AA219" s="0">
         <v>3.99999991059303E-02</v>
       </c>
-      <c r="AA219" s="0">
-        <v>2.99999993294477E-02</v>
-      </c>
       <c r="AB219" s="0" t="inlineStr">
         <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1930-87, wind nearest Cordova, dT from BEES;</t>
+          <t>2.99999993294477E-02</t>
+        </is>
+      </c>
+      <c r="AC219" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1930-87, wind nearest Cordova, dT from BEES;</t>
         </is>
       </c>
     </row>
@@ -14498,17 +14818,20 @@
         <v>0</v>
       </c>
       <c r="R220" s="0">
-        <v>2.73000001907349</v>
+        <v>2.92000007629395</v>
       </c>
       <c r="T220" s="0">
-        <v>4.09999990463257</v>
-      </c>
-      <c r="AA220" s="0">
-        <v>2.99999993294477E-02</v>
-      </c>
+        <v>3.89000010490417</v>
+      </c>
+      <c r="AA220" s="0"/>
       <c r="AB220" s="0" t="inlineStr">
         <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018 ; Propane is average of costs for those who own tank and those who rent; Elev. From Alaska Wilderness Milepost 1989, weather from nearest: Homer;</t>
+          <t>2.99999993294477E-02</t>
+        </is>
+      </c>
+      <c r="AC220" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data;. fuel costs from 7/2018 ;  Elev. From Alaska Wilderness Milepost 1989, weather from nearest: Homer;</t>
         </is>
       </c>
     </row>
@@ -14564,17 +14887,20 @@
         <v>0</v>
       </c>
       <c r="R221" s="0">
-        <v>2.75</v>
+        <v>2.70000004768372</v>
       </c>
       <c r="T221" s="0">
-        <v>4.09999990463257</v>
-      </c>
-      <c r="AA221" s="0">
-        <v>2.99999993294477E-02</v>
-      </c>
+        <v>3.78999996185303</v>
+      </c>
+      <c r="AA221" s="0"/>
       <c r="AB221" s="0" t="inlineStr">
         <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018; HDD, dT from BEES; wind, dbTfrom nearest- Kenai;</t>
+          <t>2.99999993294477E-02</t>
+        </is>
+      </c>
+      <c r="AC221" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018; HDD, dT from BEES; wind, dbTfrom nearest- Kenai;</t>
         </is>
       </c>
     </row>
@@ -14630,20 +14956,23 @@
         <v>0</v>
       </c>
       <c r="R222" s="0">
-        <v>2.72000002861023</v>
+        <v>3.04999995231628</v>
       </c>
       <c r="T222" s="0">
-        <v>4.09999990463257</v>
-      </c>
-      <c r="Z222" s="0">
+        <v>3.89000010490417</v>
+      </c>
+      <c r="Z222" s="0"/>
+      <c r="AA222" s="0">
         <v>4.50000017881393E-02</v>
       </c>
-      <c r="AA222" s="0">
-        <v>2.99999993294477E-02</v>
-      </c>
       <c r="AB222" s="0" t="inlineStr">
         <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018 survey; Weather info in Weather database - DO NOT ENTER HERE;</t>
+          <t>2.99999993294477E-02</t>
+        </is>
+      </c>
+      <c r="AC222" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018 survey; Weather info in Weather database - DO NOT ENTER HERE;</t>
         </is>
       </c>
     </row>
@@ -14699,17 +15028,20 @@
         <v>0</v>
       </c>
       <c r="R223" s="0">
-        <v>2.69000005722046</v>
+        <v>3.05999994277954</v>
       </c>
       <c r="T223" s="0">
-        <v>4.09999990463257</v>
-      </c>
-      <c r="AA223" s="0">
-        <v>2.99999993294477E-02</v>
-      </c>
+        <v>4.19999980926514</v>
+      </c>
+      <c r="AA223" s="0"/>
       <c r="AB223" s="0" t="inlineStr">
         <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018;delivered from Seward Shoreside Petroleum; weather from AEIDC:1979-87; wind from WERA;</t>
+          <t>2.99999993294477E-02</t>
+        </is>
+      </c>
+      <c r="AC223" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018;delivered from Seward Shoreside Petroleum; weather from AEIDC:1979-87; wind from WERA;</t>
         </is>
       </c>
     </row>
@@ -14768,17 +15100,20 @@
         <v>262</v>
       </c>
       <c r="R224" s="0">
-        <v>2.75</v>
+        <v>2.69000005722046</v>
       </c>
       <c r="T224" s="0">
-        <v>4.09999990463257</v>
-      </c>
-      <c r="AA224" s="0">
-        <v>2.99999993294477E-02</v>
-      </c>
+        <v>3.78999996185303</v>
+      </c>
+      <c r="AA224" s="0"/>
       <c r="AB224" s="0" t="inlineStr">
         <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1951-87, wind nearest Kenai;</t>
+          <t>2.99999993294477E-02</t>
+        </is>
+      </c>
+      <c r="AC224" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1951-87, wind nearest Kenai;</t>
         </is>
       </c>
     </row>
@@ -14834,20 +15169,23 @@
         <v>0</v>
       </c>
       <c r="R225" s="0">
-        <v>2.75</v>
+        <v>2.69000005722046</v>
       </c>
       <c r="T225" s="0">
-        <v>4.09999990463257</v>
-      </c>
-      <c r="Z225" s="0">
-        <v>2.99999993294477E-02</v>
-      </c>
+        <v>3.78999996185303</v>
+      </c>
+      <c r="Z225" s="0"/>
       <c r="AA225" s="0">
         <v>2.99999993294477E-02</v>
       </c>
       <c r="AB225" s="0" t="inlineStr">
         <is>
-          <t>1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1943-87, m/s from WERA;</t>
+          <t>2.99999993294477E-02</t>
+        </is>
+      </c>
+      <c r="AC225" s="0" t="inlineStr">
+        <is>
+          <t>7/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1943-87, m/s from WERA;</t>
         </is>
       </c>
     </row>
@@ -14906,17 +15244,20 @@
         <v>247</v>
       </c>
       <c r="R226" s="0">
-        <v>2.69000005722046</v>
+        <v>3</v>
       </c>
       <c r="T226" s="0">
         <v>4.09999990463257</v>
       </c>
-      <c r="AA226" s="0">
-        <v>2.99999993294477E-02</v>
-      </c>
+      <c r="AA226" s="0"/>
       <c r="AB226" s="0" t="inlineStr">
         <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1952-54,66-78-83-87, wind from WERA map class;</t>
+          <t>2.99999993294477E-02</t>
+        </is>
+      </c>
+      <c r="AC226" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1952-54,66-78-83-87, wind from WERA map class;</t>
         </is>
       </c>
     </row>
@@ -14972,17 +15313,20 @@
         <v>0</v>
       </c>
       <c r="R227" s="0">
-        <v>2.75</v>
+        <v>2.69000005722046</v>
       </c>
       <c r="T227" s="0">
-        <v>4.09999990463257</v>
-      </c>
-      <c r="AA227" s="0">
-        <v>2.99999993294477E-02</v>
-      </c>
+        <v>3.78999996185303</v>
+      </c>
+      <c r="AA227" s="0"/>
       <c r="AB227" s="0" t="inlineStr">
         <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018;  HDD, Temp, Elev from AEIDC Climatological Summary, 1967-78;</t>
+          <t>2.99999993294477E-02</t>
+        </is>
+      </c>
+      <c r="AC227" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018;  HDD, Temp, Elev from AEIDC Climatological Summary, 1967-78;</t>
         </is>
       </c>
     </row>
@@ -15038,17 +15382,20 @@
         <v>0</v>
       </c>
       <c r="R228" s="0">
-        <v>2.75990462303162</v>
+        <v>2.92000007629395</v>
       </c>
       <c r="T228" s="0">
         <v>4.09999990463257</v>
       </c>
-      <c r="AA228" s="0">
-        <v>2.99999993294477E-02</v>
-      </c>
+      <c r="AA228" s="0"/>
       <c r="AB228" s="0" t="inlineStr">
         <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; weather from Ninilchik</t>
+          <t>2.99999993294477E-02</t>
+        </is>
+      </c>
+      <c r="AC228" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; weather from Ninilchik</t>
         </is>
       </c>
     </row>
@@ -15107,17 +15454,20 @@
         <v>270</v>
       </c>
       <c r="R229" s="0">
-        <v>2.73000001907349</v>
+        <v>2.98000001907349</v>
       </c>
       <c r="T229" s="0">
         <v>4.09999990463257</v>
       </c>
-      <c r="AA229" s="0">
-        <v>2.99999993294477E-02</v>
-      </c>
+      <c r="AA229" s="0"/>
       <c r="AB229" s="0" t="inlineStr">
         <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1957-68, wind nearest Kenai, dT from BEES;</t>
+          <t>2.99999993294477E-02</t>
+        </is>
+      </c>
+      <c r="AC229" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1957-68, wind nearest Kenai, dT from BEES;</t>
         </is>
       </c>
     </row>
@@ -15173,20 +15523,23 @@
         <v>0</v>
       </c>
       <c r="R230" s="0">
-        <v>4.38000011444092</v>
+        <v>4.90000009536743</v>
       </c>
       <c r="T230" s="0">
-        <v>5.55000019073486</v>
-      </c>
-      <c r="Z230" s="0">
+        <v>6.5</v>
+      </c>
+      <c r="Z230" s="0"/>
+      <c r="AA230" s="0">
         <v>3.50000001490116E-02</v>
       </c>
-      <c r="AA230" s="0">
-        <v>2.99999993294477E-02</v>
-      </c>
       <c r="AB230" s="0" t="inlineStr">
         <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1967-76, wind from WERA map class;</t>
+          <t>2.99999993294477E-02</t>
+        </is>
+      </c>
+      <c r="AC230" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1967-76, wind from WERA map class;</t>
         </is>
       </c>
     </row>
@@ -15242,20 +15595,23 @@
         <v>0</v>
       </c>
       <c r="R231" s="0">
-        <v>2.75</v>
+        <v>2.69000005722046</v>
       </c>
       <c r="T231" s="0">
-        <v>4.09999990463257</v>
-      </c>
-      <c r="Z231" s="0">
-        <v>2.99999993294477E-02</v>
-      </c>
+        <v>3.78999996185303</v>
+      </c>
+      <c r="Z231" s="0"/>
       <c r="AA231" s="0">
         <v>2.99999993294477E-02</v>
       </c>
       <c r="AB231" s="0" t="inlineStr">
         <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018 HDD, Temp, Elev from AEIDC Climatological Summary, 1962-69,wind nearest Kenai, dT from CRELL Design Data;</t>
+          <t>2.99999993294477E-02</t>
+        </is>
+      </c>
+      <c r="AC231" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018 HDD, Temp, Elev from AEIDC Climatological Summary, 1962-69,wind nearest Kenai, dT from CRELL Design Data;</t>
         </is>
       </c>
     </row>
@@ -15314,15 +15670,18 @@
         <v>270</v>
       </c>
       <c r="R232" s="0">
-        <v>2.75</v>
+        <v>2.69000005722046</v>
       </c>
       <c r="T232" s="0">
-        <v>4.09999990463257</v>
-      </c>
-      <c r="AA232" s="0">
-        <v>2.99999993294477E-02</v>
-      </c>
+        <v>3.78999996185303</v>
+      </c>
+      <c r="AA232" s="0"/>
       <c r="AB232" s="0" t="inlineStr">
+        <is>
+          <t>2.99999993294477E-02</t>
+        </is>
+      </c>
+      <c r="AC232" s="0" t="inlineStr">
         <is>
           <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1954-61,66-68, wind from nearest:Kenai, dT from Soldotna;</t>
         </is>
@@ -15380,11 +15739,12 @@
         <v>0</v>
       </c>
       <c r="R233" s="0">
-        <v>4.75</v>
-      </c>
-      <c r="AB233" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1967-70</t>
+        <v>5.25</v>
+      </c>
+      <c r="AB233" s="0" t="inlineStr"/>
+      <c r="AC233" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1967-70</t>
         </is>
       </c>
     </row>
@@ -15443,17 +15803,19 @@
         <v>281</v>
       </c>
       <c r="R234" s="0">
-        <v>2.75</v>
+        <v>3.08999991416931</v>
       </c>
       <c r="T234" s="0">
         <v>3.83999991416931</v>
       </c>
-      <c r="Z234" s="0">
+      <c r="Z234" s="0"/>
+      <c r="AA234" s="0">
         <v>1.99999995529652E-02</v>
       </c>
-      <c r="AB234" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018; weather from nearest: Wasilla</t>
+      <c r="AB234" s="0" t="inlineStr"/>
+      <c r="AC234" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018; weather from nearest: Wasilla</t>
         </is>
       </c>
     </row>
@@ -15512,14 +15874,15 @@
         <v>1</v>
       </c>
       <c r="R235" s="0">
-        <v>3.14000010490417</v>
+        <v>3.23000001907349</v>
       </c>
       <c r="T235" s="0">
         <v>4.5</v>
       </c>
-      <c r="AB235" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; weather from AEIDC:1955-66.77-78</t>
+      <c r="AB235" s="0" t="inlineStr"/>
+      <c r="AC235" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; weather from AEIDC:1955-66.77-78</t>
         </is>
       </c>
     </row>
@@ -15575,17 +15938,19 @@
         <v>0</v>
       </c>
       <c r="R236" s="0">
-        <v>2.75</v>
+        <v>3.08999991416931</v>
       </c>
       <c r="T236" s="0">
-        <v>3.83999991416931</v>
-      </c>
-      <c r="Z236" s="0">
+        <v>4</v>
+      </c>
+      <c r="Z236" s="0"/>
+      <c r="AA236" s="0">
         <v>2.99999993294477E-02</v>
       </c>
-      <c r="AB236" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018;  HDD, Temp, Elev from AEIDC Climatological Summary, 1948-87, wind from WERA map class, dT from Anchorage; fuel prices from 11/2003 survey</t>
+      <c r="AB236" s="0" t="inlineStr"/>
+      <c r="AC236" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018;  HDD, Temp, Elev from AEIDC Climatological Summary, 1948-87, wind from WERA map class, dT from Anchorage; fuel prices from 11/2003 survey</t>
         </is>
       </c>
     </row>
@@ -15640,7 +16005,8 @@
       <c r="P237" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="AB237" s="0" t="inlineStr">
+      <c r="AB237" s="0" t="inlineStr"/>
+      <c r="AC237" s="0" t="inlineStr">
         <is>
           <t>Oct 2016 Weather and Location Data. HDD, Temp, Elev from AEIDC Climatological Summary, 1939-59,71-75,79-87, wind m/s from WERA</t>
         </is>
@@ -15698,14 +16064,15 @@
         <v>0</v>
       </c>
       <c r="R238" s="0">
-        <v>2.75</v>
+        <v>3.08999991416931</v>
       </c>
       <c r="T238" s="0">
-        <v>3.83999991416931</v>
-      </c>
-      <c r="AB238" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1978-87, dT from Anchorage; oil prices from Service Oil &amp; Gas, 10/00</t>
+        <v>4</v>
+      </c>
+      <c r="AB238" s="0" t="inlineStr"/>
+      <c r="AC238" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1978-87, dT from Anchorage; oil prices from Service Oil &amp; Gas, 10/00</t>
         </is>
       </c>
     </row>
@@ -15761,17 +16128,18 @@
         <v>0</v>
       </c>
       <c r="R239" s="0">
-        <v>2.75</v>
+        <v>3.08999991416931</v>
       </c>
       <c r="T239" s="0">
-        <v>3.83999991416931</v>
+        <v>4</v>
       </c>
       <c r="U239" s="0">
         <v>350</v>
       </c>
-      <c r="AB239" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; Weather data in Weather City Library - DO NOT INCLUDE HERE! Wind m/s from WERA; design temp estimated;</t>
+      <c r="AB239" s="0" t="inlineStr"/>
+      <c r="AC239" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; Weather data in Weather City Library - DO NOT INCLUDE HERE! Wind m/s from WERA; design temp estimated;</t>
         </is>
       </c>
     </row>
@@ -15827,14 +16195,15 @@
         <v>0</v>
       </c>
       <c r="R240" s="0">
-        <v>2.75</v>
+        <v>3.08999991416931</v>
       </c>
       <c r="T240" s="0">
-        <v>3.83999991416931</v>
-      </c>
-      <c r="AB240" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; Degree days, db temp from BEES Appendix, wind nearest: Talkeetna</t>
+        <v>4</v>
+      </c>
+      <c r="AB240" s="0" t="inlineStr"/>
+      <c r="AC240" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; Degree days, db temp from BEES Appendix, wind nearest: Talkeetna</t>
         </is>
       </c>
     </row>
@@ -15890,17 +16259,19 @@
         <v>0</v>
       </c>
       <c r="R241" s="0">
-        <v>2.75</v>
+        <v>3.08999991416931</v>
       </c>
       <c r="T241" s="0">
-        <v>3.83999991416931</v>
-      </c>
-      <c r="Z241" s="0">
+        <v>4</v>
+      </c>
+      <c r="Z241" s="0"/>
+      <c r="AA241" s="0">
         <v>2.99999993294477E-02</v>
       </c>
-      <c r="AB241" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018;  Weather info in Weather database - DO NOT ENTER HERE; design temp from Anchorage</t>
+      <c r="AB241" s="0" t="inlineStr"/>
+      <c r="AC241" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018;  Weather info in Weather database - DO NOT ENTER HERE; design temp from Anchorage</t>
         </is>
       </c>
     </row>
@@ -15956,14 +16327,15 @@
         <v>0</v>
       </c>
       <c r="R242" s="0">
-        <v>2.75</v>
+        <v>3.08999991416931</v>
       </c>
       <c r="T242" s="0">
-        <v>3.83999991416931</v>
-      </c>
-      <c r="AB242" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1960-71;</t>
+        <v>4</v>
+      </c>
+      <c r="AB242" s="0" t="inlineStr"/>
+      <c r="AC242" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1960-71;</t>
         </is>
       </c>
     </row>
@@ -16019,14 +16391,15 @@
         <v>0</v>
       </c>
       <c r="R243" s="0">
-        <v>2.86999988555908</v>
+        <v>3.65000009536743</v>
       </c>
       <c r="T243" s="0">
         <v>7.42000007629395</v>
       </c>
-      <c r="AB243" s="0" t="inlineStr">
-        <is>
-          <t>Weather and Location Data. oil from 8/2016, dT from BEES nearest: Kodiak, HDD, dbT from nearest: Kodiak (1960-81), Fuel prices from City of Akhiok 1/2018</t>
+      <c r="AB243" s="0" t="inlineStr"/>
+      <c r="AC243" s="0" t="inlineStr">
+        <is>
+          <t>Weather and Location Data. oil from 8/2016, dT from BEES nearest: Kodiak, HDD, dbT from nearest: Kodiak (1960-81), Fuel prices from City of Akhiok 7/2018</t>
         </is>
       </c>
     </row>
@@ -16087,7 +16460,8 @@
       <c r="R244" s="0">
         <v>3.1800000667572</v>
       </c>
-      <c r="AB244" s="0" t="inlineStr">
+      <c r="AB244" s="0" t="inlineStr"/>
+      <c r="AC244" s="0" t="inlineStr">
         <is>
           <t>Oct 2016 Weather and Location Data.Fuel from 1/2018; weather info from nearest: Kodiak</t>
         </is>
@@ -16147,9 +16521,10 @@
       <c r="R245" s="0">
         <v>4.92000007629395</v>
       </c>
-      <c r="AB245" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; elev. From Ak. Wilderness Milepost 1989, weather from Kodiak; oil prices  from 11/2007 survey</t>
+      <c r="AB245" s="0" t="inlineStr"/>
+      <c r="AC245" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; elev. From Ak. Wilderness Milepost 1989, weather from Kodiak; oil prices  from 11/2007 survey</t>
         </is>
       </c>
     </row>
@@ -16205,14 +16580,15 @@
         <v>0</v>
       </c>
       <c r="R246" s="0">
-        <v>2.88000011444092</v>
+        <v>3.32999992370605</v>
       </c>
       <c r="T246" s="0">
         <v>5.0943398475647</v>
       </c>
-      <c r="AB246" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. NO SALES TAX ON HEATING FUEL: fuel costs from  1/2018; Weather info in Weather database - DO NOT ENTER HERE; dT from BEES;</t>
+      <c r="AB246" s="0" t="inlineStr"/>
+      <c r="AC246" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. NO SALES TAX ON HEATING FUEL: fuel costs from  7/2018; Weather info in Weather database - DO NOT ENTER HERE; dT from BEES;</t>
         </is>
       </c>
     </row>
@@ -16268,17 +16644,19 @@
         <v>0</v>
       </c>
       <c r="R247" s="0">
-        <v>3.59999990463257</v>
+        <v>3.89000010490417</v>
       </c>
       <c r="T247" s="0">
         <v>8.55000019073486</v>
       </c>
-      <c r="Z247" s="0">
+      <c r="Z247" s="0"/>
+      <c r="AA247" s="0">
         <v>2.99999993294477E-02</v>
       </c>
-      <c r="AB247" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1951-68, wind from WERA map class;</t>
+      <c r="AB247" s="0" t="inlineStr"/>
+      <c r="AC247" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018; HDD, Temp, Elev from AEIDC Climatological Summary, 1951-68, wind from WERA map class;</t>
         </is>
       </c>
     </row>
@@ -16334,17 +16712,17 @@
         <v>0</v>
       </c>
       <c r="R248" s="0">
-        <v>4.07000017166138</v>
-      </c>
-      <c r="S248" s="0">
-        <v>3.97000002861023</v>
-      </c>
-      <c r="Z248" s="0">
+        <v>4.8600001335144</v>
+      </c>
+      <c r="S248" s="0"/>
+      <c r="Z248" s="0"/>
+      <c r="AA248" s="0">
         <v>2.99999993294477E-02</v>
       </c>
-      <c r="AB248" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; HDD, Temp, Elev from Kodiak; wind from WERA map class, dT from BEES;</t>
+      <c r="AB248" s="0" t="inlineStr"/>
+      <c r="AC248" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; HDD, Temp, Elev from Kodiak; wind from WERA map class, dT from BEES;</t>
         </is>
       </c>
     </row>
@@ -16400,17 +16778,19 @@
         <v>0</v>
       </c>
       <c r="R249" s="0">
-        <v>2.75999999046326</v>
+        <v>3.51999998092651</v>
       </c>
       <c r="T249" s="0">
-        <v>6.3600001335144</v>
-      </c>
-      <c r="Z249" s="0">
+        <v>6.69000005722046</v>
+      </c>
+      <c r="Z249" s="0"/>
+      <c r="AA249" s="0">
         <v>2.99999993294477E-02</v>
       </c>
-      <c r="AB249" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; weather from nearest:Kodiak;</t>
+      <c r="AB249" s="0" t="inlineStr"/>
+      <c r="AC249" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; weather from nearest:Kodiak;</t>
         </is>
       </c>
     </row>
@@ -16466,11 +16846,12 @@
         <v>0</v>
       </c>
       <c r="R250" s="0">
-        <v>3.70000004768372</v>
-      </c>
-      <c r="AB250" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; weather from nearest: Kodiak,elev. From Ak. Wilderness Milepost 1989; fuel costs from 6/08</t>
+        <v>4.30000019073486</v>
+      </c>
+      <c r="AB250" s="0" t="inlineStr"/>
+      <c r="AC250" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; weather from nearest: Kodiak,elev. From Ak. Wilderness Milepost 1989; fuel costs from 6/08</t>
         </is>
       </c>
     </row>
@@ -16526,20 +16907,22 @@
         <v>0</v>
       </c>
       <c r="R251" s="0">
-        <v>2.96000003814697</v>
+        <v>3.1800000667572</v>
       </c>
       <c r="S251" s="0">
-        <v>2.91000008583069</v>
+        <v>3.15000009536743</v>
       </c>
       <c r="T251" s="0">
-        <v>3</v>
-      </c>
-      <c r="Z251" s="0">
+        <v>3.95000004768372</v>
+      </c>
+      <c r="Z251" s="0"/>
+      <c r="AA251" s="0">
         <v>5.00000007450581E-02</v>
       </c>
-      <c r="AB251" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018; Weather info in Weather database - DO NOT ENTER HERE;</t>
+      <c r="AB251" s="0" t="inlineStr"/>
+      <c r="AC251" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018; Weather info in Weather database - DO NOT ENTER HERE;</t>
         </is>
       </c>
     </row>
@@ -16595,7 +16978,7 @@
         <v>0</v>
       </c>
       <c r="R252" s="0">
-        <v>2.89000010490417</v>
+        <v>3.20000004768372</v>
       </c>
       <c r="T252" s="0">
         <v>3.99000000953674</v>
@@ -16606,15 +16989,17 @@
       <c r="V252" s="0">
         <v>250</v>
       </c>
-      <c r="X252" s="0">
+      <c r="X252" s="0"/>
+      <c r="Y252" s="0">
         <v>10.5</v>
       </c>
-      <c r="Y252" s="0">
+      <c r="Z252" s="0">
         <v>23.3999996185303</v>
       </c>
-      <c r="AB252" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; Weather info in Weather database - DO NOT ENTER HERE;</t>
+      <c r="AB252" s="0" t="inlineStr"/>
+      <c r="AC252" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; Weather info in Weather database - DO NOT ENTER HERE;</t>
         </is>
       </c>
     </row>
@@ -16670,14 +17055,19 @@
         <v>0</v>
       </c>
       <c r="R253" s="0">
-        <v>5.51999998092651</v>
-      </c>
-      <c r="Z253" s="0">
+        <v>5.75</v>
+      </c>
+      <c r="T253" s="0">
+        <v>10</v>
+      </c>
+      <c r="Z253" s="0"/>
+      <c r="AA253" s="0">
         <v>3.99999991059303E-02</v>
       </c>
-      <c r="AB253" s="0" t="inlineStr">
-        <is>
-          <t>Weather and Location Data. fuel prices from 1/2018</t>
+      <c r="AB253" s="0" t="inlineStr"/>
+      <c r="AC253" s="0" t="inlineStr">
+        <is>
+          <t>Weather and Location Data. fuel prices from 7/2018 - delivered from Ruby with $15 delivery fee</t>
         </is>
       </c>
     </row>
@@ -16733,14 +17123,19 @@
         <v>0</v>
       </c>
       <c r="R254" s="0">
-        <v>3.15000009536743</v>
-      </c>
-      <c r="Z254" s="0">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="T254" s="0">
+        <v>5.25</v>
+      </c>
+      <c r="Z254" s="0"/>
+      <c r="AA254" s="0">
         <v>5.00000007450581E-02</v>
       </c>
-      <c r="AB254" s="0" t="inlineStr">
-        <is>
-          <t>fuel prices from 1/2018</t>
+      <c r="AB254" s="0" t="inlineStr"/>
+      <c r="AC254" s="0" t="inlineStr">
+        <is>
+          <t>fuel prices from 7/2018 - Dillingham prices plus $.20/gallon</t>
         </is>
       </c>
     </row>
@@ -16801,12 +17196,14 @@
       <c r="T255" s="0">
         <v>16.9500007629395</v>
       </c>
-      <c r="Z255" s="0">
+      <c r="Z255" s="0"/>
+      <c r="AA255" s="0">
         <v>2.99999993294477E-02</v>
       </c>
-      <c r="AB255" s="0" t="inlineStr">
-        <is>
-          <t> Weather and Location Data. Fuel costs are from 1/2018; large discrepancy between residential subsidized rate and commercial rate ($1.50/$8.35) ; wind from WERA,</t>
+      <c r="AB255" s="0" t="inlineStr"/>
+      <c r="AC255" s="0" t="inlineStr">
+        <is>
+          <t> Weather and Location Data. Fuel costs are from 7/2018; large discrepancy between residential subsidized rate and commercial rate ($1.50/$8.35) ; wind from WERA,</t>
         </is>
       </c>
     </row>
@@ -16862,14 +17259,15 @@
         <v>0</v>
       </c>
       <c r="R256" s="0">
-        <v>3.11999988555908</v>
+        <v>3.23000001907349</v>
       </c>
       <c r="T256" s="0">
         <v>4.09999990463257</v>
       </c>
-      <c r="AB256" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018; weather data from nearest: Anchorage.</t>
+      <c r="AB256" s="0" t="inlineStr"/>
+      <c r="AC256" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018; weather data from nearest: Anchorage.</t>
         </is>
       </c>
     </row>
@@ -16925,14 +17323,15 @@
         <v>0</v>
       </c>
       <c r="R257" s="0">
-        <v>3.11999988555908</v>
+        <v>3.14000010490417</v>
       </c>
       <c r="T257" s="0">
         <v>4.09999990463257</v>
       </c>
-      <c r="AB257" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018; weather data from nearest: Anchorage</t>
+      <c r="AB257" s="0" t="inlineStr"/>
+      <c r="AC257" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018; weather data from nearest: Anchorage</t>
         </is>
       </c>
     </row>
@@ -16994,11 +17393,12 @@
         <v>3.08999991416931</v>
       </c>
       <c r="T258" s="0">
-        <v>4.09999990463257</v>
-      </c>
-      <c r="AB258" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018 for Anchorage plus $ .15 and propane from Amerigas</t>
+        <v>4.5</v>
+      </c>
+      <c r="AB258" s="0" t="inlineStr"/>
+      <c r="AC258" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018 for Anchorage plus $ .15 and propane from Amerigas</t>
         </is>
       </c>
     </row>
@@ -17057,20 +17457,23 @@
         <v>292</v>
       </c>
       <c r="R259" s="0">
-        <v>2.75</v>
+        <v>3.1800000667572</v>
       </c>
       <c r="S259" s="0">
-        <v>2.66000008583069</v>
+        <v>3.15000009536743</v>
       </c>
       <c r="T259" s="0">
-        <v>3.15000009536743</v>
-      </c>
-      <c r="AA259" s="0">
-        <v>5.00000007450581E-02</v>
-      </c>
+        <v>3.95000004768372</v>
+      </c>
+      <c r="AA259" s="0"/>
       <c r="AB259" s="0" t="inlineStr">
         <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018</t>
+          <t>5.00000007450581E-02</t>
+        </is>
+      </c>
+      <c r="AC259" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018</t>
         </is>
       </c>
     </row>
@@ -17126,17 +17529,19 @@
         <v>0</v>
       </c>
       <c r="R260" s="0">
-        <v>3.60999989509583</v>
+        <v>3.48000001907349</v>
       </c>
       <c r="T260" s="0">
         <v>4.44000005722046</v>
       </c>
-      <c r="Z260" s="0">
+      <c r="Z260" s="0"/>
+      <c r="AA260" s="0">
         <v>3.99999991059303E-02</v>
       </c>
-      <c r="AB260" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018;  Weather from AEIDC Climate Smmary 1922-25,30-76,83-87;</t>
+      <c r="AB260" s="0" t="inlineStr"/>
+      <c r="AC260" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018;  Weather from AEIDC Climate Smmary 1922-25,30-76,83-87;</t>
         </is>
       </c>
     </row>
@@ -17195,17 +17600,19 @@
         <v>293</v>
       </c>
       <c r="R261" s="0">
-        <v>2.89000010490417</v>
+        <v>3.20000004768372</v>
       </c>
       <c r="T261" s="0">
-        <v>3.99000000953674</v>
-      </c>
-      <c r="Z261" s="0">
+        <v>4</v>
+      </c>
+      <c r="Z261" s="0"/>
+      <c r="AA261" s="0">
         <v>3.99999991059303E-02</v>
       </c>
-      <c r="AB261" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018;  weather and wind from EZ-Rater database</t>
+      <c r="AB261" s="0" t="inlineStr"/>
+      <c r="AC261" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018;  weather and wind from EZ-Rater database</t>
         </is>
       </c>
     </row>
@@ -17261,17 +17668,19 @@
         <v>0</v>
       </c>
       <c r="R262" s="0">
-        <v>3.60999989509583</v>
+        <v>3.48000001907349</v>
       </c>
       <c r="T262" s="0">
-        <v>4.44000005722046</v>
-      </c>
-      <c r="Z262" s="0">
+        <v>4.07999992370605</v>
+      </c>
+      <c r="Z262" s="0"/>
+      <c r="AA262" s="0">
         <v>5.99999986588955E-02</v>
       </c>
-      <c r="AB262" s="0" t="inlineStr">
-        <is>
-          <t> Weather and Location Data. fuel costs from 1/2018 ; Fairbanks weather data;</t>
+      <c r="AB262" s="0" t="inlineStr"/>
+      <c r="AC262" s="0" t="inlineStr">
+        <is>
+          <t> Weather and Location Data. fuel costs from 7/2018 ; Fairbanks weather data;</t>
         </is>
       </c>
     </row>
@@ -17330,17 +17739,19 @@
         <v>151</v>
       </c>
       <c r="R263" s="0">
-        <v>3.19000005722046</v>
+        <v>3.22000002861023</v>
       </c>
       <c r="S263" s="0">
-        <v>3.19000005722046</v>
-      </c>
-      <c r="Z263" s="0">
+        <v>3.22000002861023</v>
+      </c>
+      <c r="Z263" s="0"/>
+      <c r="AA263" s="0">
         <v>2.99999993294477E-02</v>
       </c>
-      <c r="AB263" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; wind from WERA;</t>
+      <c r="AB263" s="0" t="inlineStr"/>
+      <c r="AC263" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; wind from WERA;</t>
         </is>
       </c>
     </row>
@@ -17396,14 +17807,15 @@
         <v>0</v>
       </c>
       <c r="R264" s="0">
-        <v>3.09999990463257</v>
+        <v>3.13000011444092</v>
       </c>
       <c r="T264" s="0">
-        <v>3.75</v>
-      </c>
-      <c r="AB264" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018; Fairbanks weather data; fuel prices from 11/2003 survey</t>
+        <v>4</v>
+      </c>
+      <c r="AB264" s="0" t="inlineStr"/>
+      <c r="AC264" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018; Fairbanks weather data; fuel prices from 11/2003 survey</t>
         </is>
       </c>
     </row>
@@ -17462,14 +17874,15 @@
         <v>302</v>
       </c>
       <c r="R265" s="0">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T265" s="0">
-        <v>4.44000005722046</v>
-      </c>
-      <c r="AB265" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data.  Fuel cost update 1/2018</t>
+        <v>4.40000009536743</v>
+      </c>
+      <c r="AB265" s="0" t="inlineStr"/>
+      <c r="AC265" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data.  Fuel cost update 7/2018</t>
         </is>
       </c>
     </row>
@@ -17528,14 +17941,15 @@
         <v>293</v>
       </c>
       <c r="R266" s="0">
-        <v>2.89000010490417</v>
+        <v>3.20000004768372</v>
       </c>
       <c r="T266" s="0">
-        <v>3.99000000953674</v>
-      </c>
-      <c r="AB266" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from  1/2018; Fairbanks weather data;</t>
+        <v>4</v>
+      </c>
+      <c r="AB266" s="0" t="inlineStr"/>
+      <c r="AC266" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from  7/2018; Fairbanks weather data;</t>
         </is>
       </c>
     </row>
@@ -17594,14 +18008,15 @@
         <v>1</v>
       </c>
       <c r="R267" s="0">
-        <v>3.11999988555908</v>
+        <v>3.14000010490417</v>
       </c>
       <c r="T267" s="0">
-        <v>5.59999990463257</v>
-      </c>
-      <c r="AB267" s="0" t="inlineStr">
-        <is>
-          <t>Fuel costs from  1/2018; propane a mix of Suburban and Amerigas prices</t>
+        <v>4.09999990463257</v>
+      </c>
+      <c r="AB267" s="0" t="inlineStr"/>
+      <c r="AC267" s="0" t="inlineStr">
+        <is>
+          <t>Fuel costs from  7/2018;</t>
         </is>
       </c>
     </row>
@@ -17660,17 +18075,18 @@
         <v>0</v>
       </c>
       <c r="R268" s="0">
-        <v>3.14000010490417</v>
+        <v>3.5</v>
       </c>
       <c r="S268" s="0">
-        <v>3.03999996185303</v>
+        <v>3.48000001907349</v>
       </c>
       <c r="T268" s="0">
         <v>2.94000005722046</v>
       </c>
-      <c r="AB268" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018</t>
+      <c r="AB268" s="0" t="inlineStr"/>
+      <c r="AC268" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018</t>
         </is>
       </c>
     </row>
@@ -17729,17 +18145,18 @@
         <v>0</v>
       </c>
       <c r="R269" s="0">
-        <v>3.14000010490417</v>
+        <v>3.5</v>
       </c>
       <c r="S269" s="0">
-        <v>3.03999996185303</v>
+        <v>3.48000001907349</v>
       </c>
       <c r="T269" s="0">
         <v>2.94000005722046</v>
       </c>
-      <c r="AB269" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. fuel costs from 1/2018</t>
+      <c r="AB269" s="0" t="inlineStr"/>
+      <c r="AC269" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. fuel costs from 7/2018</t>
         </is>
       </c>
     </row>
@@ -17803,12 +18220,14 @@
       <c r="T270" s="0">
         <v>16.9500007629395</v>
       </c>
-      <c r="Z270" s="0">
+      <c r="Z270" s="0"/>
+      <c r="AA270" s="0">
         <v>2.99999993294477E-02</v>
       </c>
-      <c r="AB270" s="0" t="inlineStr">
-        <is>
-          <t> Weather and Location Data. Fuel costs are from 1/2018; large discrepancy between residential subsidized rate and commercial rate ($1.50/$8.35) ; wind from WERA,</t>
+      <c r="AB270" s="0" t="inlineStr"/>
+      <c r="AC270" s="0" t="inlineStr">
+        <is>
+          <t> Weather and Location Data. Fuel costs are from 7/2018; large discrepancy between residential subsidized rate and commercial rate ($1.50/$8.35) ; wind from WERA,</t>
         </is>
       </c>
     </row>
@@ -17872,9 +18291,10 @@
       <c r="T271" s="0">
         <v>8.47000026702881</v>
       </c>
-      <c r="AB271" s="0" t="inlineStr">
-        <is>
-          <t>1/2018; There  is such a large discrepancy between residential subsidized rate and commercial rate ($1.40/$4.10) ; wind from WERA,</t>
+      <c r="AB271" s="0" t="inlineStr"/>
+      <c r="AC271" s="0" t="inlineStr">
+        <is>
+          <t>7/2018; There  is such a large discrepancy between residential subsidized rate and commercial rate ($1.40/$4.10) ; wind from WERA,</t>
         </is>
       </c>
     </row>
@@ -17938,9 +18358,10 @@
       <c r="T272" s="0">
         <v>6</v>
       </c>
-      <c r="AB272" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. There is such a large discrepancy between residential subsidized rate and commercial rate ($2.50/$8.50) ; wind from WERA,elev. From Ak. Wilderness Milepost 1989; 1/2018</t>
+      <c r="AB272" s="0" t="inlineStr"/>
+      <c r="AC272" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. There is such a large discrepancy between residential subsidized rate and commercial rate ($2.50/$8.50) ; wind from WERA,elev. From Ak. Wilderness Milepost 1989; 7/2018</t>
         </is>
       </c>
     </row>
@@ -18004,12 +18425,14 @@
       <c r="T273" s="0">
         <v>11.5699996948242</v>
       </c>
-      <c r="Z273" s="0">
+      <c r="Z273" s="0"/>
+      <c r="AA273" s="0">
         <v>2.99999993294477E-02</v>
       </c>
-      <c r="AB273" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. There are two listings for Point Hope because here is such a large discrepancy between residential subsidized rate and commercial rate ($1.99/$7.99) 1/2018; wind from WERA,; HDD, db temp from AEIDC, 1924-27, 41-54,82; 7/17;</t>
+      <c r="AB273" s="0" t="inlineStr"/>
+      <c r="AC273" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. There are two listings for Point Hope because here is such a large discrepancy between residential subsidized rate and commercial rate ($1.99/$7.99) 7/2018; wind from WERA,; HDD, db temp from AEIDC, 1924-27, 41-54,82; 7/17;</t>
         </is>
       </c>
     </row>
@@ -18073,9 +18496,10 @@
       <c r="T274" s="0">
         <v>14.6199998855591</v>
       </c>
-      <c r="AB274" s="0" t="inlineStr">
-        <is>
-          <t>Oct 2016 Weather and Location Data. There is  a large discrepancy between residential subsidized rate and commercial rate ($1.50/$5.96) ; wind from WERA,;  Design temp from BEES Appendix; fuel prices from 1/2018</t>
+      <c r="AB274" s="0" t="inlineStr"/>
+      <c r="AC274" s="0" t="inlineStr">
+        <is>
+          <t>Oct 2016 Weather and Location Data. There is  a large discrepancy between residential subsidized rate and commercial rate ($1.50/$5.96) ; wind from WERA,;  Design temp from BEES Appendix; fuel prices from 7/2018</t>
         </is>
       </c>
     </row>
@@ -18133,7 +18557,8 @@
       <c r="Q275" s="0">
         <v>293</v>
       </c>
-      <c r="AB275" s="0" t="inlineStr">
+      <c r="AB275" s="0" t="inlineStr"/>
+      <c r="AC275" s="0" t="inlineStr">
         <is>
           <t>New City as of 10/16/2016 Energy Library.</t>
         </is>
